--- a/record.xlsx
+++ b/record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A573516F-D692-4793-8DCC-667D8A612BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB09F59-E2D8-43BF-A63A-E5D29E6BAD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>题目</t>
   </si>
@@ -49,14 +49,49 @@
     <t>把整个序列分为三部分，左边部分单调递增，中间部分无序，右边部分单调递增。拷贝原数组并排序，比较排序后的数组与原数组，找到左右两端第一个不一样的位置left,right，[left, right]即为中间数组的部分。</t>
   </si>
   <si>
+    <t>860. 柠檬水找零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类讨论，找钱时，先把数值大的10块找出去，因为5块的使用场景更广泛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>561. 数组拆分 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值无论和谁在一起min，较大的那个数都会被排除掉。为了使min的损失最小，最小值和次小值进行min。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>贪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>714. 买卖股票的最佳时机含手续费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 假如我今天卖股票，那么我要是在之前的历史最低点买入就好了。
+2. 将手续费看作买入手续费。
+3. 卖出股票的同时，立即获得了免除手续费买入这只股票的权力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +121,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -117,7 +159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -127,10 +169,22 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -139,33 +193,6 @@
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -195,7 +222,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -216,32 +243,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -359,6 +360,59 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="宋体"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -373,16 +427,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F647883-3A68-4720-87DC-7342AFBB74A1}" name="表1" displayName="表1" ref="A1:G2" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
-  <autoFilter ref="A1:G2" xr:uid="{0F647883-3A68-4720-87DC-7342AFBB74A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F647883-3A68-4720-87DC-7342AFBB74A1}" name="表1" displayName="表1" ref="A1:G5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G5" xr:uid="{0F647883-3A68-4720-87DC-7342AFBB74A1}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{52889FFF-5D64-4BF8-9582-1A41CB948328}" name="题目" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{30B2952C-52ED-4577-9325-1DA235BF9E91}" name="难度" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{04F9400D-9C6E-4AE6-B633-6AFDCD2EC5E7}" name="一刷" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{15760F51-B0AA-41FC-BF25-24C91A789A24}" name="二刷" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{52889FFF-5D64-4BF8-9582-1A41CB948328}" name="题目" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{30B2952C-52ED-4577-9325-1DA235BF9E91}" name="难度" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{04F9400D-9C6E-4AE6-B633-6AFDCD2EC5E7}" name="一刷" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{15760F51-B0AA-41FC-BF25-24C91A789A24}" name="二刷" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{16729B8A-B856-4B3E-A7A0-A046C143D64D}" name="三刷" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{9E9A5EE2-334A-42DC-AA30-D392565C44D8}" name="题解" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{FEF61964-7332-45D6-B178-00F1673FC0DC}" name="题目类型" dataDxfId="1" dataCellStyle="好"/>
+    <tableColumn id="6" xr3:uid="{9E9A5EE2-334A-42DC-AA30-D392565C44D8}" name="题解" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{FEF61964-7332-45D6-B178-00F1673FC0DC}" name="题目类型" dataDxfId="0" dataCellStyle="好"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -709,16 +763,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" customWidth="1"/>
-    <col min="6" max="6" width="44.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.90625" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.36328125" customWidth="1"/>
     <col min="7" max="7" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -745,7 +800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="56" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -757,11 +812,68 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5">
+        <v>44601</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>44602</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5">
+        <v>44602</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB09F59-E2D8-43BF-A63A-E5D29E6BAD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E1FF57-A5FE-4B9C-A9EE-C38CDF5B9056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>题目</t>
   </si>
@@ -84,6 +84,22 @@
     <t>1. 假如我今天卖股票，那么我要是在之前的历史最低点买入就好了。
 2. 将手续费看作买入手续费。
 3. 卖出股票的同时，立即获得了免除手续费买入这只股票的权力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学公式。https://leetcode-cn.com/problems/rabbits-in-forest/solution/sen-lin-zhong-de-tu-zi-by-leetcode-solut-kvla/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>781. 森林中的兔子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402. 移掉 K 位数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心 + 单非递减调栈。https://leetcode-cn.com/problems/remove-k-digits/solution/yi-zhao-chi-bian-li-kou-si-dao-ti-ma-ma-zai-ye-b-5/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,8 +443,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F647883-3A68-4720-87DC-7342AFBB74A1}" name="表1" displayName="表1" ref="A1:G5" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G5" xr:uid="{0F647883-3A68-4720-87DC-7342AFBB74A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F647883-3A68-4720-87DC-7342AFBB74A1}" name="表1" displayName="表1" ref="A1:G7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G7" xr:uid="{0F647883-3A68-4720-87DC-7342AFBB74A1}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{52889FFF-5D64-4BF8-9582-1A41CB948328}" name="题目" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{30B2952C-52ED-4577-9325-1DA235BF9E91}" name="难度" dataDxfId="5"/>
@@ -763,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -800,7 +816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,6 +889,44 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
+        <v>44603</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5">
+        <v>44603</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>15</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E1FF57-A5FE-4B9C-A9EE-C38CDF5B9056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>题目</t>
   </si>
@@ -49,78 +48,79 @@
     <t>把整个序列分为三部分，左边部分单调递增，中间部分无序，右边部分单调递增。拷贝原数组并排序，比较排序后的数组与原数组，找到左右两端第一个不一样的位置left,right，[left, right]即为中间数组的部分。</t>
   </si>
   <si>
+    <t>贪心</t>
+  </si>
+  <si>
     <t>860. 柠檬水找零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>简单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>分类讨论，找钱时，先把数值大的10块找出去，因为5块的使用场景更广泛。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>561. 数组拆分 I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最小值无论和谁在一起min，较大的那个数都会被排除掉。为了使min的损失最小，最小值和次小值进行min。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贪心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>714. 买卖股票的最佳时机含手续费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 假如我今天卖股票，那么我要是在之前的历史最低点买入就好了。
 2. 将手续费看作买入手续费。
 3. 卖出股票的同时，立即获得了免除手续费买入这只股票的权力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>781. 森林中的兔子</t>
   </si>
   <si>
     <t>数学公式。https://leetcode-cn.com/problems/rabbits-in-forest/solution/sen-lin-zhong-de-tu-zi-by-leetcode-solut-kvla/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>781. 森林中的兔子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>402. 移掉 K 位数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贪心 + 单非递减调栈。https://leetcode-cn.com/problems/remove-k-digits/solution/yi-zhao-chi-bian-li-kou-si-dao-ti-ma-ma-zai-ye-b-5/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>738. 单调递增的数字</t>
+  </si>
+  <si>
+    <t>找到第一个递减的数字。将之后的数字都变成9。https://leetcode-cn.com/problems/monotone-increasing-digits/solution/jian-dan-tan-xin-shou-ba-shou-jiao-xue-k-a0mp/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,21 +131,156 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,10 +290,191 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -166,26 +482,280 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -197,237 +767,170 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="7">
     <dxf>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color indexed="8"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color indexed="8"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
         <name val="宋体"/>
+        <scheme val="none"/>
         <charset val="134"/>
-        <scheme val="none"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color indexed="8"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color indexed="8"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color indexed="8"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
+      <alignment vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
+      <alignment vertical="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,24 +938,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F647883-3A68-4720-87DC-7342AFBB74A1}" name="表1" displayName="表1" ref="A1:G7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G7" xr:uid="{0F647883-3A68-4720-87DC-7342AFBB74A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G8" totalsRowShown="0">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{52889FFF-5D64-4BF8-9582-1A41CB948328}" name="题目" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{30B2952C-52ED-4577-9325-1DA235BF9E91}" name="难度" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{04F9400D-9C6E-4AE6-B633-6AFDCD2EC5E7}" name="一刷" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{15760F51-B0AA-41FC-BF25-24C91A789A24}" name="二刷" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{16729B8A-B856-4B3E-A7A0-A046C143D64D}" name="三刷" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{9E9A5EE2-334A-42DC-AA30-D392565C44D8}" name="题解" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{FEF61964-7332-45D6-B178-00F1673FC0DC}" name="题目类型" dataDxfId="0" dataCellStyle="好"/>
+    <tableColumn id="1" name="题目" dataDxfId="0"/>
+    <tableColumn id="2" name="难度" dataDxfId="1"/>
+    <tableColumn id="3" name="一刷" dataDxfId="2"/>
+    <tableColumn id="4" name="二刷" dataDxfId="3"/>
+    <tableColumn id="5" name="三刷" dataDxfId="4"/>
+    <tableColumn id="6" name="题解" dataDxfId="5"/>
+    <tableColumn id="7" name="题目类型" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -501,7 +1001,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,26 +1034,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -586,23 +1069,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -773,27 +1239,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E7:E8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="36.90625" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.36328125" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="36.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="10.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="65.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="10.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,7 +1282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" ht="42" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -831,139 +1297,164 @@
       <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="28" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44601</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="28" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44602</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="5" ht="42" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44602</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5">
-        <v>44601</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5">
-        <v>44602</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>15</v>
+    <row r="6" ht="28" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44603</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5">
-        <v>44602</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
+    <row r="7" ht="42" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6">
+        <v>44603</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5">
-        <v>44603</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5">
-        <v>44603</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6" t="s">
+    <row r="8" ht="42" spans="1:7">
+      <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>15</v>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10">
+        <v>44604</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/record.xlsx
+++ b/record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>题目</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>找到第一个递减的数字。将之后的数字都变成9。https://leetcode-cn.com/problems/monotone-increasing-digits/solution/jian-dan-tan-xin-shou-ba-shou-jiao-xue-k-a0mp/</t>
+  </si>
+  <si>
+    <t>1011. 在 D 天内送达包裹的能力</t>
+  </si>
+  <si>
+    <t>二分+贪心。二分查找运载能力。在给定的运载能力下，找到所需的运载天数，与给定的运载天数进行比较，调整运载能力。</t>
+  </si>
+  <si>
+    <t>807. 保持城市天际线</t>
+  </si>
+  <si>
+    <t>每个建筑物的高度 = min(当前行的最高值，当前列的最高值)</t>
   </si>
 </sst>
 </file>
@@ -102,7 +114,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,97 +136,79 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,24 +251,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,139 +288,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,37 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +473,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,13 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,36 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -580,153 +562,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -746,25 +739,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -943,8 +936,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G8" totalsRowShown="0">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G10" totalsRowShown="0">
+  <autoFilter ref="A1:G10"/>
   <tableColumns count="7">
     <tableColumn id="1" name="题目" dataDxfId="0"/>
     <tableColumn id="2" name="难度" dataDxfId="1"/>
@@ -1245,13 +1238,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="36.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="10.2727272727273" customWidth="1"/>
@@ -1397,21 +1390,59 @@
       </c>
     </row>
     <row r="8" ht="42" spans="1:7">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>44604</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="11" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="28" spans="1:7">
+      <c r="A9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10">
+        <v>44605</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10">
+        <v>44605</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>10</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>题目</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>每个建筑物的高度 = min(当前行的最高值，当前列的最高值)</t>
+  </si>
+  <si>
+    <t>881. 救生艇</t>
+  </si>
+  <si>
+    <t>先对 people 排序，然后用两个指针分别指向体重最轻和体重最重的人</t>
   </si>
 </sst>
 </file>
@@ -109,8 +115,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -136,9 +142,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,71 +171,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,28 +249,21 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -288,19 +294,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,157 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,15 +483,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -506,32 +527,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,11 +554,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,76 +599,76 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -671,59 +677,59 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,6 +755,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -936,8 +951,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G10" totalsRowShown="0">
-  <autoFilter ref="A1:G10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G11" totalsRowShown="0">
+  <autoFilter ref="A1:G11"/>
   <tableColumns count="7">
     <tableColumn id="1" name="题目" dataDxfId="0"/>
     <tableColumn id="2" name="难度" dataDxfId="1"/>
@@ -1238,10 +1253,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1443,6 +1458,25 @@
         <v>27</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13">
+        <v>44605</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>10</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AC3E0C-D580-49B5-A051-B4146D867842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC849A2A-D656-4551-AB18-DFC94A122758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>题目</t>
   </si>
@@ -136,7 +136,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>实时维护当前最远可达处</t>
+    <t>45. 跳跃游戏 II</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时维护当前最远可达处。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护一个起跳的范围，从该起跳范围开始跳跃，找到此次跳跃的最远落脚点，更新下一次起跳的范围。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>409. 最长回文串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计字符出现的个数，一旦出现两次，回文串的长度就能+2。最后，回文串还能接受一个字符放在最中间的位置，判断原串是不是有这么一个字符。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>455. 分发饼干</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>先用最大的饼干满足胃口最大的孩子。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -398,8 +426,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G14" totalsRowShown="0">
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G17" totalsRowShown="0">
+  <autoFilter ref="A1:G17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="难度" dataDxfId="5"/>
@@ -700,15 +728,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.26953125" customWidth="1"/>
     <col min="6" max="6" width="65.36328125" customWidth="1"/>
     <col min="7" max="7" width="10.81640625" customWidth="1"/>
@@ -978,9 +1007,66 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="17">
+        <v>44607</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="17">
+        <v>44607</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="17">
+        <v>44607</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>10</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC849A2A-D656-4551-AB18-DFC94A122758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2224FB1C-3145-47F1-9BC4-F917DC4D75EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
   <si>
     <t>题目</t>
   </si>
@@ -165,6 +165,36 @@
   </si>
   <si>
     <t>先用最大的饼干满足胃口最大的孩子。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>605. 种花问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果能种花，那就种上。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1221. 分割平衡字符串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计L和R出现的次数，一旦出现次数相同，平衡字符串个数就+1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>134. 加油站</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 假如从加油站X出发，最远能到达Y，可以证明，从X与Y之间的任意一个加油站出发，最远也都只能到达Y。
+2. 我们首先检查第 0 个加油站，并试图判断能否环绕一周；如果不能，就从第一个无法到达的加油站开始继续检查。
+3. https://leetcode-cn.com/problems/gas-station/solution/jia-you-zhan-by-leetcode-solution/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -426,8 +456,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G17" totalsRowShown="0">
-  <autoFilter ref="A1:G17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G20" totalsRowShown="0">
+  <autoFilter ref="A1:G20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="难度" dataDxfId="5"/>
@@ -728,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1067,6 +1097,63 @@
         <v>42</v>
       </c>
       <c r="G17" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="17">
+        <v>44608</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="17">
+        <v>44608</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="84" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="17">
+        <v>44608</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>10</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2224FB1C-3145-47F1-9BC4-F917DC4D75EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D249B8A1-9543-4E79-8E43-0AF4BC9E517B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>题目</t>
   </si>
@@ -195,6 +195,30 @@
     <t>1. 假如从加油站X出发，最远能到达Y，可以证明，从X与Y之间的任意一个加油站出发，最远也都只能到达Y。
 2. 我们首先检查第 0 个加油站，并试图判断能否环绕一周；如果不能，就从第一个无法到达的加油站开始继续检查。
 3. https://leetcode-cn.com/problems/gas-station/solution/jia-you-zhan-by-leetcode-solution/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>763. 划分字母区间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录字符出现的最后一个位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>179. 最大数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1005. K 次取反后最大化的数组和</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽可能多的反转负数。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质就是排序问题。注意前缀0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -456,8 +480,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G20" totalsRowShown="0">
-  <autoFilter ref="A1:G20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G23" totalsRowShown="0">
+  <autoFilter ref="A1:G23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="难度" dataDxfId="5"/>
@@ -758,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1154,6 +1178,63 @@
         <v>49</v>
       </c>
       <c r="G20" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="17">
+        <v>44609</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="17">
+        <v>44609</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="17">
+        <v>44609</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>10</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D249B8A1-9543-4E79-8E43-0AF4BC9E517B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C64426E-C00B-4A04-A0B1-A629B5F3CBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
   <si>
     <t>题目</t>
   </si>
@@ -219,6 +219,14 @@
   </si>
   <si>
     <t>本质就是排序问题。注意前缀0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>435. 无重叠区间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照区间的右边界从小到大排序。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -480,8 +488,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G23" totalsRowShown="0">
-  <autoFilter ref="A1:G23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G24" totalsRowShown="0">
+  <autoFilter ref="A1:G24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="难度" dataDxfId="5"/>
@@ -782,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G23" sqref="G23:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1235,6 +1243,25 @@
         <v>54</v>
       </c>
       <c r="G23" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="17">
+        <v>44610</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>10</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C64426E-C00B-4A04-A0B1-A629B5F3CBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036B8A70-56CB-4345-BCDE-711D8570046E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>题目</t>
   </si>
@@ -227,6 +227,22 @@
   </si>
   <si>
     <t>按照区间的右边界从小到大排序。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>452. 用最少数量的箭引爆气球</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭应该设在气球的屁股上。把气球按照右边界从小到大排序。第一支箭一定会设在第一个气球的屁股上。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 45. 把数组排成最小的数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义排序，和 179 题一样。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -488,8 +504,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G24" totalsRowShown="0">
-  <autoFilter ref="A1:G24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G26" totalsRowShown="0">
+  <autoFilter ref="A1:G26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="难度" dataDxfId="5"/>
@@ -790,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:G24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1262,6 +1278,44 @@
         <v>57</v>
       </c>
       <c r="G24" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="17">
+        <v>44610</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="17">
+        <v>44610</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>10</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036B8A70-56CB-4345-BCDE-711D8570046E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B73407E-D626-448D-A493-36BC635F49F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>题目</t>
   </si>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>自定义排序，和 179 题一样。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>376. 摆动序列</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>找波峰和波谷的数量。注意更新趋势的时候要放在更新结果的if语句里更新。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1013. 将数组分成和相等的三个部分</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -504,8 +516,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G26" totalsRowShown="0">
-  <autoFilter ref="A1:G26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G28" totalsRowShown="0">
+  <autoFilter ref="A1:G28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="难度" dataDxfId="5"/>
@@ -806,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:G25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1316,6 +1328,42 @@
         <v>61</v>
       </c>
       <c r="G26" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="28" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="17">
+        <v>44611</v>
+      </c>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="17">
+        <v>44611</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="8" t="s">
         <v>10</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\lemon\code\leetcode-cpp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B73407E-D626-448D-A493-36BC635F49F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>题目</t>
   </si>
@@ -45,19 +38,19 @@
     <t>题目类型</t>
   </si>
   <si>
-    <t>581. 最短无序连续子数组</t>
+    <t xml:space="preserve">581. 最短无序连续子数组</t>
   </si>
   <si>
     <t>中等</t>
   </si>
   <si>
-    <t>把整个序列分为三部分，左边部分单调递增，中间部分无序，右边部分单调递增。拷贝原数组并排序，比较排序后的数组与原数组，找到左右两端第一个不一样的位置left,right，[left, right]即为中间数组的部分。</t>
+    <t xml:space="preserve">把整个序列分为三部分，左边部分单调递增，中间部分无序，右边部分单调递增。拷贝原数组并排序，比较排序后的数组与原数组，找到左右两端第一个不一样的位置left,right，[left, right]即为中间数组的部分。</t>
   </si>
   <si>
     <t>贪心</t>
   </si>
   <si>
-    <t>860. 柠檬水找零</t>
+    <t xml:space="preserve">860. 柠檬水找零</t>
   </si>
   <si>
     <t>简单</t>
@@ -66,236 +59,184 @@
     <t>分类讨论，找钱时，先把数值大的10块找出去，因为5块的使用场景更广泛。</t>
   </si>
   <si>
-    <t>561. 数组拆分 I</t>
+    <t xml:space="preserve">561. 数组拆分 I</t>
   </si>
   <si>
     <t>最小值无论和谁在一起min，较大的那个数都会被排除掉。为了使min的损失最小，最小值和次小值进行min。</t>
   </si>
   <si>
-    <t>714. 买卖股票的最佳时机含手续费</t>
-  </si>
-  <si>
-    <t>1. 假如我今天卖股票，那么我要是在之前的历史最低点买入就好了。
+    <t xml:space="preserve">714. 买卖股票的最佳时机含手续费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 假如我今天卖股票，那么我要是在之前的历史最低点买入就好了。
 2. 将手续费看作买入手续费。
 3. 卖出股票的同时，立即获得了免除手续费买入这只股票的权力。</t>
   </si>
   <si>
-    <t>781. 森林中的兔子</t>
+    <t xml:space="preserve">781. 森林中的兔子</t>
   </si>
   <si>
     <t>数学公式。https://leetcode-cn.com/problems/rabbits-in-forest/solution/sen-lin-zhong-de-tu-zi-by-leetcode-solut-kvla/</t>
   </si>
   <si>
-    <t>402. 移掉 K 位数字</t>
-  </si>
-  <si>
-    <t>贪心 + 单非递减调栈。https://leetcode-cn.com/problems/remove-k-digits/solution/yi-zhao-chi-bian-li-kou-si-dao-ti-ma-ma-zai-ye-b-5/</t>
-  </si>
-  <si>
-    <t>738. 单调递增的数字</t>
+    <t xml:space="preserve">402. 移掉 K 位数字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贪心 + 单非递减调栈。https://leetcode-cn.com/problems/remove-k-digits/solution/yi-zhao-chi-bian-li-kou-si-dao-ti-ma-ma-zai-ye-b-5/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">738. 单调递增的数字</t>
   </si>
   <si>
     <t>找到第一个递减的数字。将之后的数字都变成9。https://leetcode-cn.com/problems/monotone-increasing-digits/solution/jian-dan-tan-xin-shou-ba-shou-jiao-xue-k-a0mp/</t>
   </si>
   <si>
-    <t>1011. 在 D 天内送达包裹的能力</t>
+    <t xml:space="preserve">1011. 在 D 天内送达包裹的能力</t>
   </si>
   <si>
     <t>二分+贪心。二分查找运载能力。在给定的运载能力下，找到所需的运载天数，与给定的运载天数进行比较，调整运载能力。</t>
   </si>
   <si>
-    <t>807. 保持城市天际线</t>
-  </si>
-  <si>
-    <t>每个建筑物的高度 = min(当前行的最高值，当前列的最高值)</t>
-  </si>
-  <si>
-    <t>881. 救生艇</t>
-  </si>
-  <si>
-    <t>先对 people 排序，然后用两个指针分别指向体重最轻和体重最重的人</t>
-  </si>
-  <si>
-    <t>11. 盛最多水的容器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>双指针 + 贪心。每次移动最低的柱子</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>122. 买卖股票的最佳时机 II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t xml:space="preserve">807. 保持城市天际线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每个建筑物的高度 = min(当前行的最高值，当前列的最高值)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">881. 救生艇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">先对 people 排序，然后用两个指针分别指向体重最轻和体重最重的人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. 盛最多水的容器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">双指针 + 贪心。每次移动最低的柱子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122. 买卖股票的最佳时机 II</t>
   </si>
   <si>
     <t>只做今天买，明天卖这样买卖周期为两天的买卖。只要今天股票价格比昨天高，就卖掉。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>55. 跳跃游戏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>45. 跳跃游戏 II</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">55. 跳跃游戏</t>
   </si>
   <si>
     <t>实时维护当前最远可达处。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">45. 跳跃游戏 II</t>
   </si>
   <si>
     <t>维护一个起跳的范围，从该起跳范围开始跳跃，找到此次跳跃的最远落脚点，更新下一次起跳的范围。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>409. 最长回文串</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">409. 最长回文串</t>
   </si>
   <si>
     <t>统计字符出现的个数，一旦出现两次，回文串的长度就能+2。最后，回文串还能接受一个字符放在最中间的位置，判断原串是不是有这么一个字符。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>455. 分发饼干</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">455. 分发饼干</t>
   </si>
   <si>
     <t>先用最大的饼干满足胃口最大的孩子。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>605. 种花问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">605. 种花问题</t>
   </si>
   <si>
     <t>如果能种花，那就种上。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1221. 分割平衡字符串</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1221. 分割平衡字符串</t>
   </si>
   <si>
     <t>统计L和R出现的次数，一旦出现次数相同，平衡字符串个数就+1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>134. 加油站</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 假如从加油站X出发，最远能到达Y，可以证明，从X与Y之间的任意一个加油站出发，最远也都只能到达Y。
+  </si>
+  <si>
+    <t xml:space="preserve">134. 加油站</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 假如从加油站X出发，最远能到达Y，可以证明，从X与Y之间的任意一个加油站出发，最远也都只能到达Y。
 2. 我们首先检查第 0 个加油站，并试图判断能否环绕一周；如果不能，就从第一个无法到达的加油站开始继续检查。
 3. https://leetcode-cn.com/problems/gas-station/solution/jia-you-zhan-by-leetcode-solution/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>763. 划分字母区间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">763. 划分字母区间</t>
   </si>
   <si>
     <t>记录字符出现的最后一个位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>179. 最大数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1005. K 次取反后最大化的数组和</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">179. 最大数</t>
+  </si>
+  <si>
+    <t>本质就是排序问题。注意前缀0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1005. K 次取反后最大化的数组和</t>
   </si>
   <si>
     <t>尽可能多的反转负数。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>本质就是排序问题。注意前缀0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>435. 无重叠区间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">435. 无重叠区间</t>
   </si>
   <si>
     <t>按照区间的右边界从小到大排序。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>452. 用最少数量的箭引爆气球</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">452. 用最少数量的箭引爆气球</t>
   </si>
   <si>
     <t>箭应该设在气球的屁股上。把气球按照右边界从小到大排序。第一支箭一定会设在第一个气球的屁股上。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑指 Offer 45. 把数组排成最小的数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义排序，和 179 题一样。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>376. 摆动序列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">剑指 Offer 45. 把数组排成最小的数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自定义排序，和 179 题一样。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">376. 摆动序列</t>
   </si>
   <si>
     <t>找波峰和波谷的数量。注意更新趋势的时候要放在更新结果的if语句里更新。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1013. 将数组分成和相等的三个部分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1013. 将数组分成和相等的三个部分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">406. 根据身高重建队列</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="160" formatCode="yyyy/m/d"/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color indexed="64"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
   <fills count="3">
@@ -308,7 +249,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -322,66 +263,39 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="9">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -391,116 +305,110 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
       <font>
+        <name val="宋体"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <color indexed="64"/>
+        <sz val="11.000000"/>
         <u val="none"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center" wrapText="1"/>
+      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <color indexed="64"/>
+        <sz val="11.000000"/>
         <u val="none"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center"/>
+      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <color indexed="64"/>
+        <sz val="11.000000"/>
         <u val="none"/>
-        <sz val="11"/>
-        <color indexed="8"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="160" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <name val="宋体"/>
-        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color indexed="64"/>
+        <sz val="11.000000"/>
+        <u val="none"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center"/>
+      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <color indexed="64"/>
+        <sz val="11.000000"/>
         <u val="none"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center"/>
+      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <color indexed="64"/>
+        <sz val="11.000000"/>
         <u val="none"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="宋体"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center"/>
+      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -508,31 +416,28 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G28" totalsRowShown="0">
-  <autoFilter ref="A1:G28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="表1" ref="A1:G29">
+  <autoFilter ref="A1:G29"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="难度" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="一刷" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="二刷" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="三刷" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="题解" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="题目类型" dataDxfId="0"/>
+    <tableColumn id="1" name="题目" dataDxfId="0"/>
+    <tableColumn id="2" name="难度" dataDxfId="1"/>
+    <tableColumn id="3" name="一刷" dataDxfId="2"/>
+    <tableColumn id="4" name="二刷" dataDxfId="3"/>
+    <tableColumn id="5" name="三刷" dataDxfId="4"/>
+    <tableColumn id="6" name="题解" dataDxfId="5"/>
+    <tableColumn id="7" name="题目类型" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -577,13 +482,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -606,19 +511,18 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -641,7 +545,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -816,24 +719,232 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0" zoomScale="100">
+      <selection activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="36.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="65.36328125" customWidth="1"/>
-    <col min="7" max="7" width="10.81640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="36.90625"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="10.26953125"/>
+    <col customWidth="1" min="3" max="3" width="10.26953125"/>
+    <col customWidth="1" min="6" max="6" width="65.36328125"/>
+    <col customWidth="1" min="7" max="7" width="10.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" ht="63">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,532 +986,548 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="31.5">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="2">
         <v>44601</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="31.5">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>44602</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="63">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
         <v>44602</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="31.5">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
         <v>44603</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="42" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="47.25">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
         <v>44603</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="47.25">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
         <v>44604</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="31.5">
+      <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
         <v>44605</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="11" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75">
+      <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
         <v>44605</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="11" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="31.5">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6">
         <v>44605</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="14" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75">
+      <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
         <v>44606</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="15" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="31.5">
+      <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="17">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6">
         <v>44606</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75">
+      <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="17">
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6">
         <v>44606</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="31.5">
+      <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="17">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6">
         <v>44607</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="15" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="42" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="G15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="47.25">
+      <c r="A16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="6">
+        <v>44607</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="17">
+      <c r="G16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75">
+      <c r="A17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6">
         <v>44607</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="17">
-        <v>44607</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="15" t="s">
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75">
+      <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6">
+        <v>44608</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="17">
+      <c r="G18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75">
+      <c r="A19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="6">
         <v>44608</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="17">
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" ht="94.5">
+      <c r="A20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="6">
         <v>44608</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="84" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="G20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75">
+      <c r="A21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="17">
-        <v>44608</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="15" t="s">
+      <c r="B21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6">
+        <v>44609</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="G21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75">
+      <c r="A22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="17">
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6">
         <v>44609</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="G22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75">
+      <c r="A23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="17">
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="6">
         <v>44609</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="15" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75">
+      <c r="A24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="6">
+        <v>44610</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="17">
-        <v>44609</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="G24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="31.5">
+      <c r="A25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="17">
+      <c r="B25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6">
         <v>44610</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="15" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="G25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75">
+      <c r="A26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="17">
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6">
         <v>44610</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="15" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="G26" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="31.5">
+      <c r="A27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="17">
-        <v>44610</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="15" t="s">
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6">
+        <v>44611</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="28" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="G27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75">
+      <c r="A28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="17">
+      <c r="B28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="6">
         <v>44611</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="15" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="17">
-        <v>44611</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="8" t="s">
-        <v>10</v>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="8">
+        <v>44614</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/record.xlsx
+++ b/record.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D95DF8-DBE6-4696-9FBC-0398C41177A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>题目</t>
   </si>
@@ -51,19 +38,19 @@
     <t>题目类型</t>
   </si>
   <si>
-    <t>581. 最短无序连续子数组</t>
+    <t xml:space="preserve">581. 最短无序连续子数组</t>
   </si>
   <si>
     <t>中等</t>
   </si>
   <si>
-    <t>把整个序列分为三部分，左边部分单调递增，中间部分无序，右边部分单调递增。拷贝原数组并排序，比较排序后的数组与原数组，找到左右两端第一个不一样的位置left,right，[left, right]即为中间数组的部分。</t>
+    <t xml:space="preserve">把整个序列分为三部分，左边部分单调递增，中间部分无序，右边部分单调递增。拷贝原数组并排序，比较排序后的数组与原数组，找到左右两端第一个不一样的位置left,right，[left, right]即为中间数组的部分。</t>
   </si>
   <si>
     <t>贪心</t>
   </si>
   <si>
-    <t>860. 柠檬水找零</t>
+    <t xml:space="preserve">860. 柠檬水找零</t>
   </si>
   <si>
     <t>简单</t>
@@ -72,161 +59,161 @@
     <t>分类讨论，找钱时，先把数值大的10块找出去，因为5块的使用场景更广泛。</t>
   </si>
   <si>
-    <t>561. 数组拆分 I</t>
+    <t xml:space="preserve">561. 数组拆分 I</t>
   </si>
   <si>
     <t>最小值无论和谁在一起min，较大的那个数都会被排除掉。为了使min的损失最小，最小值和次小值进行min。</t>
   </si>
   <si>
-    <t>714. 买卖股票的最佳时机含手续费</t>
-  </si>
-  <si>
-    <t>1. 假如我今天卖股票，那么我要是在之前的历史最低点买入就好了。
+    <t xml:space="preserve">714. 买卖股票的最佳时机含手续费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 假如我今天卖股票，那么我要是在之前的历史最低点买入就好了。
 2. 将手续费看作买入手续费。
 3. 卖出股票的同时，立即获得了免除手续费买入这只股票的权力。</t>
   </si>
   <si>
-    <t>781. 森林中的兔子</t>
+    <t xml:space="preserve">781. 森林中的兔子</t>
   </si>
   <si>
     <t>数学公式。https://leetcode-cn.com/problems/rabbits-in-forest/solution/sen-lin-zhong-de-tu-zi-by-leetcode-solut-kvla/</t>
   </si>
   <si>
-    <t>402. 移掉 K 位数字</t>
-  </si>
-  <si>
-    <t>贪心 + 单非递减调栈。https://leetcode-cn.com/problems/remove-k-digits/solution/yi-zhao-chi-bian-li-kou-si-dao-ti-ma-ma-zai-ye-b-5/</t>
-  </si>
-  <si>
-    <t>738. 单调递增的数字</t>
+    <t xml:space="preserve">402. 移掉 K 位数字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贪心 + 单非递减调栈。https://leetcode-cn.com/problems/remove-k-digits/solution/yi-zhao-chi-bian-li-kou-si-dao-ti-ma-ma-zai-ye-b-5/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">738. 单调递增的数字</t>
   </si>
   <si>
     <t>找到第一个递减的数字。将之后的数字都变成9。https://leetcode-cn.com/problems/monotone-increasing-digits/solution/jian-dan-tan-xin-shou-ba-shou-jiao-xue-k-a0mp/</t>
   </si>
   <si>
-    <t>1011. 在 D 天内送达包裹的能力</t>
+    <t xml:space="preserve">1011. 在 D 天内送达包裹的能力</t>
   </si>
   <si>
     <t>二分+贪心。二分查找运载能力。在给定的运载能力下，找到所需的运载天数，与给定的运载天数进行比较，调整运载能力。</t>
   </si>
   <si>
-    <t>807. 保持城市天际线</t>
-  </si>
-  <si>
-    <t>每个建筑物的高度 = min(当前行的最高值，当前列的最高值)</t>
-  </si>
-  <si>
-    <t>881. 救生艇</t>
-  </si>
-  <si>
-    <t>先对 people 排序，然后用两个指针分别指向体重最轻和体重最重的人</t>
-  </si>
-  <si>
-    <t>11. 盛最多水的容器</t>
-  </si>
-  <si>
-    <t>双指针 + 贪心。每次移动最低的柱子</t>
-  </si>
-  <si>
-    <t>122. 买卖股票的最佳时机 II</t>
+    <t xml:space="preserve">807. 保持城市天际线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每个建筑物的高度 = min(当前行的最高值，当前列的最高值)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">881. 救生艇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">先对 people 排序，然后用两个指针分别指向体重最轻和体重最重的人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. 盛最多水的容器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">双指针 + 贪心。每次移动最低的柱子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122. 买卖股票的最佳时机 II</t>
   </si>
   <si>
     <t>只做今天买，明天卖这样买卖周期为两天的买卖。只要今天股票价格比昨天高，就卖掉。</t>
   </si>
   <si>
-    <t>55. 跳跃游戏</t>
+    <t xml:space="preserve">55. 跳跃游戏</t>
   </si>
   <si>
     <t>实时维护当前最远可达处。</t>
   </si>
   <si>
-    <t>45. 跳跃游戏 II</t>
+    <t xml:space="preserve">45. 跳跃游戏 II</t>
   </si>
   <si>
     <t>维护一个起跳的范围，从该起跳范围开始跳跃，找到此次跳跃的最远落脚点，更新下一次起跳的范围。</t>
   </si>
   <si>
-    <t>409. 最长回文串</t>
+    <t xml:space="preserve">409. 最长回文串</t>
   </si>
   <si>
     <t>统计字符出现的个数，一旦出现两次，回文串的长度就能+2。最后，回文串还能接受一个字符放在最中间的位置，判断原串是不是有这么一个字符。</t>
   </si>
   <si>
-    <t>455. 分发饼干</t>
+    <t xml:space="preserve">455. 分发饼干</t>
   </si>
   <si>
     <t>先用最大的饼干满足胃口最大的孩子。</t>
   </si>
   <si>
-    <t>605. 种花问题</t>
+    <t xml:space="preserve">605. 种花问题</t>
   </si>
   <si>
     <t>如果能种花，那就种上。</t>
   </si>
   <si>
-    <t>1221. 分割平衡字符串</t>
+    <t xml:space="preserve">1221. 分割平衡字符串</t>
   </si>
   <si>
     <t>统计L和R出现的次数，一旦出现次数相同，平衡字符串个数就+1。</t>
   </si>
   <si>
-    <t>134. 加油站</t>
-  </si>
-  <si>
-    <t>1. 假如从加油站X出发，最远能到达Y，可以证明，从X与Y之间的任意一个加油站出发，最远也都只能到达Y。
+    <t xml:space="preserve">134. 加油站</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 假如从加油站X出发，最远能到达Y，可以证明，从X与Y之间的任意一个加油站出发，最远也都只能到达Y。
 2. 我们首先检查第 0 个加油站，并试图判断能否环绕一周；如果不能，就从第一个无法到达的加油站开始继续检查。
 3. https://leetcode-cn.com/problems/gas-station/solution/jia-you-zhan-by-leetcode-solution/</t>
   </si>
   <si>
-    <t>763. 划分字母区间</t>
+    <t xml:space="preserve">763. 划分字母区间</t>
   </si>
   <si>
     <t>记录字符出现的最后一个位置</t>
   </si>
   <si>
-    <t>179. 最大数</t>
+    <t xml:space="preserve">179. 最大数</t>
   </si>
   <si>
     <t>本质就是排序问题。注意前缀0</t>
   </si>
   <si>
-    <t>1005. K 次取反后最大化的数组和</t>
+    <t xml:space="preserve">1005. K 次取反后最大化的数组和</t>
   </si>
   <si>
     <t>尽可能多的反转负数。</t>
   </si>
   <si>
-    <t>435. 无重叠区间</t>
+    <t xml:space="preserve">435. 无重叠区间</t>
   </si>
   <si>
     <t>按照区间的右边界从小到大排序。</t>
   </si>
   <si>
-    <t>452. 用最少数量的箭引爆气球</t>
+    <t xml:space="preserve">452. 用最少数量的箭引爆气球</t>
   </si>
   <si>
     <t>箭应该设在气球的屁股上。把气球按照右边界从小到大排序。第一支箭一定会设在第一个气球的屁股上。</t>
   </si>
   <si>
-    <t>剑指 Offer 45. 把数组排成最小的数</t>
-  </si>
-  <si>
-    <t>自定义排序，和 179 题一样。</t>
-  </si>
-  <si>
-    <t>376. 摆动序列</t>
+    <t xml:space="preserve">剑指 Offer 45. 把数组排成最小的数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自定义排序，和 179 题一样。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">376. 摆动序列</t>
   </si>
   <si>
     <t>找波峰和波谷的数量。注意更新趋势的时候要放在更新结果的if语句里更新。</t>
   </si>
   <si>
-    <t>1013. 将数组分成和相等的三个部分</t>
-  </si>
-  <si>
-    <t>406. 根据身高重建队列</t>
-  </si>
-  <si>
-    <t>88. 合并两个有序数组</t>
+    <t xml:space="preserve">1013. 将数组分成和相等的三个部分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">406. 根据身高重建队列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88. 合并两个有序数组</t>
   </si>
   <si>
     <t>三个指针，从后往前开始填充nums1数组。</t>
@@ -235,21 +222,21 @@
     <t>双指针</t>
   </si>
   <si>
-    <t>167. 两数之和 II - 输入有序数组</t>
+    <t xml:space="preserve">167. 两数之和 II - 输入有序数组</t>
   </si>
   <si>
     <t>很简单的双指针。</t>
   </si>
   <si>
-    <t>142. 环形链表 II</t>
-  </si>
-  <si>
-    <t>1. 快指针每次走2步，慢指针每次走1步。
+    <t xml:space="preserve">142. 环形链表 II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 快指针每次走2步，慢指针每次走1步。
 2. 快慢指针第一次相遇后，让快指针回到起点。
 3. 快指针慢指针每次都走1步，两指针再次相遇时，即是答案。</t>
   </si>
   <si>
-    <t>633. 平方数之和</t>
+    <t xml:space="preserve">633. 平方数之和</t>
   </si>
   <si>
     <t>2022/2//28</t>
@@ -258,75 +245,111 @@
     <t>其实是个简单题，注意中间结果不要溢出了。</t>
   </si>
   <si>
-    <t>680. 验证回文字符串 Ⅱ</t>
+    <t xml:space="preserve">680. 验证回文字符串 Ⅱ</t>
   </si>
   <si>
     <t>左右指针分别指向头和尾，如果发现两指针指向的内容不一样，就试着删除。</t>
   </si>
   <si>
-    <t>524. 通过删除字母匹配到字典里最长单词</t>
+    <t xml:space="preserve">524. 通过删除字母匹配到字典里最长单词</t>
   </si>
   <si>
     <t>一个指针指向字符串s，另一个指向字典中的字符串</t>
   </si>
   <si>
-    <t>26. 删除有序数组中的重复项</t>
+    <t xml:space="preserve">26. 删除有序数组中的重复项</t>
   </si>
   <si>
     <t>一个指针遍历字符串，另一个指针指向下一个不重复的字符应该放置的位置。</t>
   </si>
   <si>
-    <t>19. 删除链表的倒数第 N 个结点</t>
+    <t xml:space="preserve">19. 删除链表的倒数第 N 个结点</t>
   </si>
   <si>
     <t>快慢指针。注意添加哑节点。</t>
   </si>
   <si>
-    <t>27. 移除元素</t>
-  </si>
-  <si>
-    <t>和 26 题基本上一摸一样。</t>
-  </si>
-  <si>
-    <t>283. 移动零</t>
+    <t xml:space="preserve">27. 移除元素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">和 26 题基本上一摸一样。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">283. 移动零</t>
   </si>
   <si>
     <t>一个指针指向当前需要被填充的位置。</t>
   </si>
   <si>
-    <t>15. 三数之和</t>
+    <t xml:space="preserve">15. 三数之和</t>
   </si>
   <si>
     <t>先排序。排序有两个作用：①防止重复，每次相同的数只用一次。②把寻找第二个数，第三个数的过程变成两数之和的问题。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28. 实现 strStr()</t>
+  </si>
+  <si>
+    <t>困难</t>
+  </si>
+  <si>
+    <t>KMP算法，背吧。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141. 环形链表</t>
+  </si>
+  <si>
+    <t>142题的简化版本。快指针每次走两步，慢指针每次走一步。如果相遇，证明有环，否则无环。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
+    <numFmt numFmtId="160" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="7">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="64"/>
+      <name val="Calibri"/>
+      <color theme="0"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
+      <color theme="1"/>
+      <sz val="11.000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="11.000000"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <color rgb="FF006100"/>
+      <sz val="11.000000"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,20 +364,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FF5B9BD5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA9D08E"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFA9D08E"/>
       </patternFill>
     </fill>
   </fills>
@@ -367,156 +396,160 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="4">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="12">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf fontId="4" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
       <font>
+        <name val="宋体"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <sz val="11.000000"/>
         <u val="none"/>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <name val="宋体"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
+      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <sz val="11.000000"/>
         <u val="none"/>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <name val="宋体"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <sz val="11.000000"/>
         <u val="none"/>
-        <sz val="11"/>
-        <color indexed="64"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="160" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <name val="宋体"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <sz val="11.000000"/>
+        <u val="none"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <sz val="11.000000"/>
         <u val="none"/>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <name val="宋体"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <sz val="11.000000"/>
         <u val="none"/>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <name val="宋体"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -524,31 +557,311 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G40">
-  <autoFilter ref="A1:G40" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="表1" ref="A1:G42">
+  <autoFilter ref="A1:G42"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="难度" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="一刷" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="二刷" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="三刷" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="题解" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="题目类型" dataDxfId="0"/>
+    <tableColumn id="1" name="题目" dataDxfId="0"/>
+    <tableColumn id="2" name="难度" dataDxfId="1"/>
+    <tableColumn id="3" name="一刷" dataDxfId="2"/>
+    <tableColumn id="4" name="二刷" dataDxfId="3"/>
+    <tableColumn id="5" name="三刷" dataDxfId="4"/>
+    <tableColumn id="6" name="题解" dataDxfId="5"/>
+    <tableColumn id="7" name="题目类型" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -753,788 +1066,818 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39:G40"/>
+    <sheetView topLeftCell="A25" workbookViewId="0" zoomScale="100">
+      <selection activeCell="G39" activeCellId="0" sqref="G39:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="65.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" style="1" width="36.85546875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="10.28515625"/>
+    <col customWidth="1" min="3" max="3" style="1" width="22.28515625"/>
+    <col min="4" max="5" style="1" width="9"/>
+    <col customWidth="1" min="6" max="6" style="1" width="65.42578125"/>
+    <col customWidth="1" min="7" max="7" style="1" width="10.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.75">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="63">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="51">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
         <v>44601</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="31.5">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>44601</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="31.5">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>44602</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="63">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="51">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
         <v>44602</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="31.5">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="25.5">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
         <v>44603</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="47.25">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="38.25">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
         <v>44603</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="47.25">
-      <c r="A8" s="1" t="s">
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="38.25">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
         <v>44604</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="31.5">
-      <c r="A9" s="1" t="s">
+      <c r="G8" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
         <v>44605</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75">
-      <c r="A10" s="1" t="s">
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
         <v>44605</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.5">
-      <c r="A11" s="1" t="s">
+      <c r="G10" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
         <v>44605</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75">
-      <c r="A12" s="1" t="s">
+      <c r="G11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
         <v>44606</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="31.5">
-      <c r="A13" s="1" t="s">
+      <c r="G12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="25.5">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
         <v>44606</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75">
-      <c r="A14" s="1" t="s">
+      <c r="G13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
         <v>44606</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="31.5">
-      <c r="A15" s="1" t="s">
+      <c r="G14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="25.5">
+      <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3">
         <v>44607</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="47.25">
-      <c r="A16" s="1" t="s">
+      <c r="G15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="38.25">
+      <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>44607</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="1" t="s">
+      <c r="G16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75">
+      <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>44607</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75">
-      <c r="A18" s="1" t="s">
+      <c r="G17" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75">
+      <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>44608</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75">
-      <c r="A19" s="1" t="s">
+      <c r="G18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75">
+      <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>44608</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="94.5">
-      <c r="A20" s="1" t="s">
+      <c r="G19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" ht="76.5">
+      <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
         <v>44608</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75">
-      <c r="A21" s="1" t="s">
+      <c r="G20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75">
+      <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3">
         <v>44609</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="1" t="s">
+      <c r="G21" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75">
+      <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3">
         <v>44609</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75">
-      <c r="A23" s="1" t="s">
+      <c r="G22" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75">
+      <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>44609</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75">
-      <c r="A24" s="1" t="s">
+      <c r="G23" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75">
+      <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3">
         <v>44610</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="31.5">
-      <c r="A25" s="1" t="s">
+      <c r="G24" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="25.5">
+      <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3">
         <v>44610</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75">
-      <c r="A26" s="1" t="s">
+      <c r="G25" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75">
+      <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3">
         <v>44610</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="31.5">
-      <c r="A27" s="1" t="s">
+      <c r="G26" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5">
+      <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3">
         <v>44611</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="1" t="s">
+      <c r="G27" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75">
+      <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>44611</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15">
-      <c r="A29" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" ht="15">
+      <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="6">
         <v>44614</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15">
-      <c r="A30" s="1" t="s">
+      <c r="G29" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" ht="15">
+      <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="6">
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="7">
         <v>44618</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15">
-      <c r="A31" s="1" t="s">
+    <row r="31" ht="15">
+      <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="6">
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="7">
         <v>44618</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="40.5">
-      <c r="A32" s="1" t="s">
+    <row r="32" ht="38.25">
+      <c r="A32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="6">
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7">
         <v>44618</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:7" ht="15">
-      <c r="A33" s="1" t="s">
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" ht="15">
+      <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="27">
-      <c r="A34" s="1" t="s">
+    <row r="34" ht="25.5">
+      <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="7">
         <v>44621</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15">
-      <c r="A35" s="1" t="s">
+    <row r="35" ht="15">
+      <c r="A35" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="6">
+      <c r="B35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="7">
         <v>44621</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="27">
-      <c r="A36" s="9" t="s">
+    <row r="36" ht="25.5">
+      <c r="A36" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="7">
         <v>44622</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15">
-      <c r="A37" s="1" t="s">
+    <row r="37" ht="15">
+      <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="6">
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7">
         <v>44622</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="3" t="s">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15">
-      <c r="A38" s="9" t="s">
+    <row r="38" ht="15">
+      <c r="A38" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="6">
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="7">
         <v>44622</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="3" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15">
-      <c r="A39" s="1" t="s">
+    <row r="39" ht="15">
+      <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="7">
         <v>44623</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="3" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="27">
-      <c r="A40" s="1" t="s">
+    <row r="40" ht="25.5">
+      <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="6">
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="7">
         <v>44623</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="3" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="8" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="41" ht="14.25">
+      <c r="A41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="6">
+        <v>44625</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="6">
+        <v>44625</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1542,27 +1885,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/record.xlsx
+++ b/record.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>题目</t>
   </si>
@@ -300,6 +300,27 @@
   </si>
   <si>
     <t>142题的简化版本。快指针每次走两步，慢指针每次走一步。如果相遇，证明有环，否则无环。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42. 接雨水</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/trapping-rain-water/solution/jie-yu-shui-by-leetcode-solution-tuvc/</t>
+  </si>
+  <si>
+    <t>动态规划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">剑指 Offer 22. 链表中倒数第k个节点</t>
+  </si>
+  <si>
+    <t>快慢指针。和19题一样的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">剑指 Offer 06. 从尾到头打印链表</t>
+  </si>
+  <si>
+    <t>递归</t>
   </si>
 </sst>
 </file>
@@ -309,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="160" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -335,6 +356,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <color theme="1"/>
       <sz val="11.000000"/>
@@ -348,8 +388,14 @@
       <color rgb="FF006100"/>
       <sz val="11.000000"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="10"/>
+      <sz val="11.000000"/>
+      <u/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +422,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
         <bgColor rgb="FF5B9BD5"/>
       </patternFill>
@@ -387,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -395,8 +465,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -405,33 +505,37 @@
     </xf>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="3" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="4" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="5" fillId="6" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="6" fillId="8" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="9" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="7" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -440,15 +544,34 @@
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="8" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="1" numFmtId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="5" borderId="0" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="8" borderId="2" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="8">
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Output" xfId="5" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
+    <cellStyle name="Input" xfId="7" builtinId="20"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -562,8 +685,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="表1" ref="A1:G42">
-  <autoFilter ref="A1:G42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="表1" ref="A1:G45">
+  <autoFilter ref="A1:G45"/>
   <tableColumns count="7">
     <tableColumn id="1" name="题目" dataDxfId="0"/>
     <tableColumn id="2" name="难度" dataDxfId="1"/>
@@ -1769,7 +1892,7 @@
       </c>
     </row>
     <row r="37" ht="15">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="12" t="s">
         <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1857,6 +1980,9 @@
       <c r="F41" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="G41" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="H41" s="10"/>
     </row>
     <row r="42" ht="14.25">
@@ -1872,14 +1998,65 @@
       <c r="F42" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="G42" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="6">
+        <v>44626</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="6">
+        <v>44626</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="6">
+        <v>44626</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="F43"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/record.xlsx
+++ b/record.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>题目</t>
   </si>
@@ -239,9 +239,6 @@
     <t xml:space="preserve">633. 平方数之和</t>
   </si>
   <si>
-    <t>2022/2//28</t>
-  </si>
-  <si>
     <t>其实是个简单题，注意中间结果不要溢出了。</t>
   </si>
   <si>
@@ -321,19 +318,60 @@
   </si>
   <si>
     <t>递归</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344. 反转字符串</t>
+  </si>
+  <si>
+    <t>双指针指向头尾。进行swap。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160. 相交链表</t>
+  </si>
+  <si>
+    <t>我来到你的城市，走过你来时的路。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="yyyy/m/d"/>
+  <numFmts count="5">
+    <numFmt numFmtId="160" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="161" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="162" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="163" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="23">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="0"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
@@ -345,13 +383,8 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <color theme="0"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <color theme="1"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
@@ -364,13 +397,75 @@
     <font>
       <name val="Calibri"/>
       <b/>
+      <color indexed="65"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
       <color rgb="FF3F3F3F"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <color theme="3"/>
+      <sz val="15.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <i/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color indexed="20"/>
+      <sz val="11.000000"/>
+      <u/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
+      <sz val="18.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color indexed="2"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color indexed="4"/>
+      <sz val="11.000000"/>
+      <u/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b/>
+      <color theme="3"/>
+      <sz val="13.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
@@ -390,17 +485,113 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <color theme="10"/>
+      <color indexed="20"/>
       <sz val="11.000000"/>
       <u/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241899"/>
+        <bgColor theme="9" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431398"/>
+        <bgColor theme="7" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810496"/>
+        <bgColor theme="6" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431398"/>
+        <bgColor theme="6" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241899"/>
+        <bgColor theme="5" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241899"/>
+        <bgColor theme="8" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241899"/>
+        <bgColor theme="4" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241899"/>
+        <bgColor theme="7" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431398"/>
+        <bgColor theme="8" tint="0.79998168889431398"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -410,14 +601,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.79998168889431398"/>
+        <bgColor theme="4" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
@@ -428,20 +613,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="47"/>
+        <fgColor theme="5" tint="0.79998168889431398"/>
+        <bgColor theme="5" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810496"/>
+        <bgColor theme="7" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810496"/>
+        <bgColor theme="5" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241899"/>
+        <bgColor theme="6" tint="0.39997558519241899"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431398"/>
+        <bgColor theme="9" tint="0.79998168889431398"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810496"/>
+        <bgColor theme="9" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810496"/>
+        <bgColor theme="8" tint="0.59999389629810496"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810496"/>
+        <bgColor theme="4" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
@@ -457,12 +702,53 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,97 +767,300 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="49">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="4" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="5" fillId="6" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="6" fillId="8" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="5" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="9" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="10" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="11" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="1" fillId="12" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="13" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="14" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="15" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="18" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="6" fillId="0" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="20" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="8" fillId="21" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="9" fillId="22" borderId="4" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="5" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="23" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="12" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="24" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="25" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="15" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="26" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="27" borderId="6" numFmtId="0" applyNumberFormat="0" applyFont="0" applyFill="1" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="28" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="29" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="30" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="16" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="163" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="17" fillId="0" borderId="5" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="31" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="12" fillId="0" borderId="7" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="32" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="33" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="18" fillId="0" borderId="8" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="9" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="21" fillId="18" borderId="0" numFmtId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="7" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="8" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="1" numFmtId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="5" borderId="0" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="6" fillId="8" borderId="2" numFmtId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="19" fillId="34" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="11" borderId="0" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="20" fillId="35" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="19" borderId="4" numFmtId="0" xfId="20" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="20" borderId="0" numFmtId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="5" borderId="1" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="19" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="19" fillId="34" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Bad" xfId="4" builtinId="27"/>
-    <cellStyle name="Output" xfId="5" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
-    <cellStyle name="Input" xfId="7" builtinId="20"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -584,7 +1073,6 @@
         <u val="none"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -600,7 +1088,6 @@
         <u val="none"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -616,7 +1103,7 @@
         <u val="none"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="160" formatCode="yyyy/m/d"/>
+      <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -632,7 +1119,6 @@
         <u val="none"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -648,7 +1134,6 @@
         <u val="none"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -664,14 +1149,12 @@
         <u val="none"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
       <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </dxf>
   </dxfs>
@@ -1194,22 +1677,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0" zoomScale="100">
-      <selection activeCell="G39" activeCellId="0" sqref="G39:G40"/>
+    <sheetView topLeftCell="A24" workbookViewId="0" zoomScale="100">
+      <selection activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="36.85546875"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="10.28515625"/>
-    <col customWidth="1" min="3" max="3" style="1" width="22.28515625"/>
+    <col customWidth="1" min="1" max="1" style="1" width="36.858333333333299"/>
+    <col customWidth="1" min="2" max="2" style="1" width="10.283333333333299"/>
+    <col customWidth="1" min="3" max="3" style="1" width="22.283333333333299"/>
     <col min="4" max="5" style="1" width="9"/>
-    <col customWidth="1" min="6" max="6" style="1" width="65.42578125"/>
-    <col customWidth="1" min="7" max="7" style="1" width="10.85546875"/>
+    <col customWidth="1" min="6" max="6" style="1" width="65.424999999999997"/>
+    <col customWidth="1" min="7" max="7" style="1" width="10.858333333333301"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="15.75">
+    <row r="10">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1422,7 +1909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="15.75">
+    <row r="12">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1460,7 +1947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="15.75">
+    <row r="14">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1517,7 +2004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="15.75">
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -1536,7 +2023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" ht="15.75">
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -1555,7 +2042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" ht="15.75">
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1593,7 +2080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" ht="15.75">
+    <row r="21">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -1612,7 +2099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" ht="15.75">
+    <row r="22">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -1631,7 +2118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" ht="15.75">
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -1650,7 +2137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="15.75">
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -1688,7 +2175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="15.75">
+    <row r="26">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -1726,7 +2213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" ht="15.75">
+    <row r="28">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -1743,7 +2230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" ht="15">
+    <row r="29">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -1757,14 +2244,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" ht="15">
+    <row r="30">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="3">
         <v>44618</v>
       </c>
       <c r="D30" s="2"/>
@@ -1772,18 +2259,18 @@
       <c r="F30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" ht="15">
+    <row r="31">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="3">
         <v>44618</v>
       </c>
       <c r="D31" s="2"/>
@@ -1791,18 +2278,18 @@
       <c r="F31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" ht="38.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="3">
         <v>44618</v>
       </c>
       <c r="D32" s="2"/>
@@ -1810,184 +2297,184 @@
       <c r="F32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" ht="15">
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>72</v>
+      <c r="C33" s="3">
+        <v>44620</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" ht="25.5">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="3">
         <v>44621</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" ht="15">
-      <c r="A35" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="B35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="3">
         <v>44621</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5">
+      <c r="A36" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" ht="25.5">
-      <c r="A36" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="B36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="3">
         <v>44622</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" ht="15">
-      <c r="A37" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="B37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="3">
         <v>44622</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" ht="15">
-      <c r="A38" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="B38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="3">
         <v>44622</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" ht="15">
-      <c r="A39" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="3">
         <v>44623</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" ht="25.5">
       <c r="A40" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="3">
         <v>44623</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C41" s="6">
         <v>44625</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" ht="25.5">
+      <c r="A42" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H41" s="10"/>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="A42" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>12</v>
@@ -1995,33 +2482,33 @@
       <c r="C42" s="6">
         <v>44625</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" ht="28.5">
+      <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="A43" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="B43" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" s="6">
         <v>44626</v>
       </c>
       <c r="F43" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="14" t="s">
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="A44" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>12</v>
@@ -2030,12 +2517,15 @@
         <v>44626</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="A45" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>12</v>
@@ -2043,8 +2533,42 @@
       <c r="C45" s="6">
         <v>44626</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46" s="1" t="s">
         <v>99</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="16">
+        <v>44627</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="16">
+        <v>44628</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2053,7 +2577,7 @@
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -2063,6 +2587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2072,13 +2600,17 @@
   <sheetData/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2088,7 +2620,7 @@
   <sheetData/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/record.xlsx
+++ b/record.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761A102F-D87B-4DBC-84EE-710BC461A570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="107">
   <si>
     <t>题目</t>
   </si>
@@ -38,19 +45,19 @@
     <t>题目类型</t>
   </si>
   <si>
-    <t xml:space="preserve">581. 最短无序连续子数组</t>
+    <t>581. 最短无序连续子数组</t>
   </si>
   <si>
     <t>中等</t>
   </si>
   <si>
-    <t xml:space="preserve">把整个序列分为三部分，左边部分单调递增，中间部分无序，右边部分单调递增。拷贝原数组并排序，比较排序后的数组与原数组，找到左右两端第一个不一样的位置left,right，[left, right]即为中间数组的部分。</t>
+    <t>把整个序列分为三部分，左边部分单调递增，中间部分无序，右边部分单调递增。拷贝原数组并排序，比较排序后的数组与原数组，找到左右两端第一个不一样的位置left,right，[left, right]即为中间数组的部分。</t>
   </si>
   <si>
     <t>贪心</t>
   </si>
   <si>
-    <t xml:space="preserve">860. 柠檬水找零</t>
+    <t>860. 柠檬水找零</t>
   </si>
   <si>
     <t>简单</t>
@@ -59,161 +66,161 @@
     <t>分类讨论，找钱时，先把数值大的10块找出去，因为5块的使用场景更广泛。</t>
   </si>
   <si>
-    <t xml:space="preserve">561. 数组拆分 I</t>
+    <t>561. 数组拆分 I</t>
   </si>
   <si>
     <t>最小值无论和谁在一起min，较大的那个数都会被排除掉。为了使min的损失最小，最小值和次小值进行min。</t>
   </si>
   <si>
-    <t xml:space="preserve">714. 买卖股票的最佳时机含手续费</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 假如我今天卖股票，那么我要是在之前的历史最低点买入就好了。
+    <t>714. 买卖股票的最佳时机含手续费</t>
+  </si>
+  <si>
+    <t>1. 假如我今天卖股票，那么我要是在之前的历史最低点买入就好了。
 2. 将手续费看作买入手续费。
 3. 卖出股票的同时，立即获得了免除手续费买入这只股票的权力。</t>
   </si>
   <si>
-    <t xml:space="preserve">781. 森林中的兔子</t>
+    <t>781. 森林中的兔子</t>
   </si>
   <si>
     <t>数学公式。https://leetcode-cn.com/problems/rabbits-in-forest/solution/sen-lin-zhong-de-tu-zi-by-leetcode-solut-kvla/</t>
   </si>
   <si>
-    <t xml:space="preserve">402. 移掉 K 位数字</t>
-  </si>
-  <si>
-    <t xml:space="preserve">贪心 + 单非递减调栈。https://leetcode-cn.com/problems/remove-k-digits/solution/yi-zhao-chi-bian-li-kou-si-dao-ti-ma-ma-zai-ye-b-5/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">738. 单调递增的数字</t>
+    <t>402. 移掉 K 位数字</t>
+  </si>
+  <si>
+    <t>贪心 + 单非递减调栈。https://leetcode-cn.com/problems/remove-k-digits/solution/yi-zhao-chi-bian-li-kou-si-dao-ti-ma-ma-zai-ye-b-5/</t>
+  </si>
+  <si>
+    <t>738. 单调递增的数字</t>
   </si>
   <si>
     <t>找到第一个递减的数字。将之后的数字都变成9。https://leetcode-cn.com/problems/monotone-increasing-digits/solution/jian-dan-tan-xin-shou-ba-shou-jiao-xue-k-a0mp/</t>
   </si>
   <si>
-    <t xml:space="preserve">1011. 在 D 天内送达包裹的能力</t>
+    <t>1011. 在 D 天内送达包裹的能力</t>
   </si>
   <si>
     <t>二分+贪心。二分查找运载能力。在给定的运载能力下，找到所需的运载天数，与给定的运载天数进行比较，调整运载能力。</t>
   </si>
   <si>
-    <t xml:space="preserve">807. 保持城市天际线</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每个建筑物的高度 = min(当前行的最高值，当前列的最高值)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">881. 救生艇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">先对 people 排序，然后用两个指针分别指向体重最轻和体重最重的人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11. 盛最多水的容器</t>
-  </si>
-  <si>
-    <t xml:space="preserve">双指针 + 贪心。每次移动最低的柱子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122. 买卖股票的最佳时机 II</t>
+    <t>807. 保持城市天际线</t>
+  </si>
+  <si>
+    <t>每个建筑物的高度 = min(当前行的最高值，当前列的最高值)</t>
+  </si>
+  <si>
+    <t>881. 救生艇</t>
+  </si>
+  <si>
+    <t>先对 people 排序，然后用两个指针分别指向体重最轻和体重最重的人</t>
+  </si>
+  <si>
+    <t>11. 盛最多水的容器</t>
+  </si>
+  <si>
+    <t>双指针 + 贪心。每次移动最低的柱子</t>
+  </si>
+  <si>
+    <t>122. 买卖股票的最佳时机 II</t>
   </si>
   <si>
     <t>只做今天买，明天卖这样买卖周期为两天的买卖。只要今天股票价格比昨天高，就卖掉。</t>
   </si>
   <si>
-    <t xml:space="preserve">55. 跳跃游戏</t>
+    <t>55. 跳跃游戏</t>
   </si>
   <si>
     <t>实时维护当前最远可达处。</t>
   </si>
   <si>
-    <t xml:space="preserve">45. 跳跃游戏 II</t>
+    <t>45. 跳跃游戏 II</t>
   </si>
   <si>
     <t>维护一个起跳的范围，从该起跳范围开始跳跃，找到此次跳跃的最远落脚点，更新下一次起跳的范围。</t>
   </si>
   <si>
-    <t xml:space="preserve">409. 最长回文串</t>
+    <t>409. 最长回文串</t>
   </si>
   <si>
     <t>统计字符出现的个数，一旦出现两次，回文串的长度就能+2。最后，回文串还能接受一个字符放在最中间的位置，判断原串是不是有这么一个字符。</t>
   </si>
   <si>
-    <t xml:space="preserve">455. 分发饼干</t>
+    <t>455. 分发饼干</t>
   </si>
   <si>
     <t>先用最大的饼干满足胃口最大的孩子。</t>
   </si>
   <si>
-    <t xml:space="preserve">605. 种花问题</t>
+    <t>605. 种花问题</t>
   </si>
   <si>
     <t>如果能种花，那就种上。</t>
   </si>
   <si>
-    <t xml:space="preserve">1221. 分割平衡字符串</t>
+    <t>1221. 分割平衡字符串</t>
   </si>
   <si>
     <t>统计L和R出现的次数，一旦出现次数相同，平衡字符串个数就+1。</t>
   </si>
   <si>
-    <t xml:space="preserve">134. 加油站</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 假如从加油站X出发，最远能到达Y，可以证明，从X与Y之间的任意一个加油站出发，最远也都只能到达Y。
+    <t>134. 加油站</t>
+  </si>
+  <si>
+    <t>1. 假如从加油站X出发，最远能到达Y，可以证明，从X与Y之间的任意一个加油站出发，最远也都只能到达Y。
 2. 我们首先检查第 0 个加油站，并试图判断能否环绕一周；如果不能，就从第一个无法到达的加油站开始继续检查。
 3. https://leetcode-cn.com/problems/gas-station/solution/jia-you-zhan-by-leetcode-solution/</t>
   </si>
   <si>
-    <t xml:space="preserve">763. 划分字母区间</t>
+    <t>763. 划分字母区间</t>
   </si>
   <si>
     <t>记录字符出现的最后一个位置</t>
   </si>
   <si>
-    <t xml:space="preserve">179. 最大数</t>
+    <t>179. 最大数</t>
   </si>
   <si>
     <t>本质就是排序问题。注意前缀0</t>
   </si>
   <si>
-    <t xml:space="preserve">1005. K 次取反后最大化的数组和</t>
+    <t>1005. K 次取反后最大化的数组和</t>
   </si>
   <si>
     <t>尽可能多的反转负数。</t>
   </si>
   <si>
-    <t xml:space="preserve">435. 无重叠区间</t>
+    <t>435. 无重叠区间</t>
   </si>
   <si>
     <t>按照区间的右边界从小到大排序。</t>
   </si>
   <si>
-    <t xml:space="preserve">452. 用最少数量的箭引爆气球</t>
+    <t>452. 用最少数量的箭引爆气球</t>
   </si>
   <si>
     <t>箭应该设在气球的屁股上。把气球按照右边界从小到大排序。第一支箭一定会设在第一个气球的屁股上。</t>
   </si>
   <si>
-    <t xml:space="preserve">剑指 Offer 45. 把数组排成最小的数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自定义排序，和 179 题一样。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">376. 摆动序列</t>
+    <t>剑指 Offer 45. 把数组排成最小的数</t>
+  </si>
+  <si>
+    <t>自定义排序，和 179 题一样。</t>
+  </si>
+  <si>
+    <t>376. 摆动序列</t>
   </si>
   <si>
     <t>找波峰和波谷的数量。注意更新趋势的时候要放在更新结果的if语句里更新。</t>
   </si>
   <si>
-    <t xml:space="preserve">1013. 将数组分成和相等的三个部分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">406. 根据身高重建队列</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88. 合并两个有序数组</t>
+    <t>1013. 将数组分成和相等的三个部分</t>
+  </si>
+  <si>
+    <t>406. 根据身高重建队列</t>
+  </si>
+  <si>
+    <t>88. 合并两个有序数组</t>
   </si>
   <si>
     <t>三个指针，从后往前开始填充nums1数组。</t>
@@ -222,69 +229,69 @@
     <t>双指针</t>
   </si>
   <si>
-    <t xml:space="preserve">167. 两数之和 II - 输入有序数组</t>
+    <t>167. 两数之和 II - 输入有序数组</t>
   </si>
   <si>
     <t>很简单的双指针。</t>
   </si>
   <si>
-    <t xml:space="preserve">142. 环形链表 II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 快指针每次走2步，慢指针每次走1步。
+    <t>142. 环形链表 II</t>
+  </si>
+  <si>
+    <t>1. 快指针每次走2步，慢指针每次走1步。
 2. 快慢指针第一次相遇后，让快指针回到起点。
 3. 快指针慢指针每次都走1步，两指针再次相遇时，即是答案。</t>
   </si>
   <si>
-    <t xml:space="preserve">633. 平方数之和</t>
+    <t>633. 平方数之和</t>
   </si>
   <si>
     <t>其实是个简单题，注意中间结果不要溢出了。</t>
   </si>
   <si>
-    <t xml:space="preserve">680. 验证回文字符串 Ⅱ</t>
+    <t>680. 验证回文字符串 Ⅱ</t>
   </si>
   <si>
     <t>左右指针分别指向头和尾，如果发现两指针指向的内容不一样，就试着删除。</t>
   </si>
   <si>
-    <t xml:space="preserve">524. 通过删除字母匹配到字典里最长单词</t>
+    <t>524. 通过删除字母匹配到字典里最长单词</t>
   </si>
   <si>
     <t>一个指针指向字符串s，另一个指向字典中的字符串</t>
   </si>
   <si>
-    <t xml:space="preserve">26. 删除有序数组中的重复项</t>
+    <t>26. 删除有序数组中的重复项</t>
   </si>
   <si>
     <t>一个指针遍历字符串，另一个指针指向下一个不重复的字符应该放置的位置。</t>
   </si>
   <si>
-    <t xml:space="preserve">19. 删除链表的倒数第 N 个结点</t>
+    <t>19. 删除链表的倒数第 N 个结点</t>
   </si>
   <si>
     <t>快慢指针。注意添加哑节点。</t>
   </si>
   <si>
-    <t xml:space="preserve">27. 移除元素</t>
-  </si>
-  <si>
-    <t xml:space="preserve">和 26 题基本上一摸一样。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">283. 移动零</t>
+    <t>27. 移除元素</t>
+  </si>
+  <si>
+    <t>和 26 题基本上一摸一样。</t>
+  </si>
+  <si>
+    <t>283. 移动零</t>
   </si>
   <si>
     <t>一个指针指向当前需要被填充的位置。</t>
   </si>
   <si>
-    <t xml:space="preserve">15. 三数之和</t>
+    <t>15. 三数之和</t>
   </si>
   <si>
     <t>先排序。排序有两个作用：①防止重复，每次相同的数只用一次。②把寻找第二个数，第三个数的过程变成两数之和的问题。</t>
   </si>
   <si>
-    <t xml:space="preserve">28. 实现 strStr()</t>
+    <t>28. 实现 strStr()</t>
   </si>
   <si>
     <t>困难</t>
@@ -293,13 +300,13 @@
     <t>KMP算法，背吧。</t>
   </si>
   <si>
-    <t xml:space="preserve">141. 环形链表</t>
+    <t>141. 环形链表</t>
   </si>
   <si>
     <t>142题的简化版本。快指针每次走两步，慢指针每次走一步。如果相遇，证明有环，否则无环。</t>
   </si>
   <si>
-    <t xml:space="preserve">42. 接雨水</t>
+    <t>42. 接雨水</t>
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/trapping-rain-water/solution/jie-yu-shui-by-leetcode-solution-tuvc/</t>
@@ -308,189 +315,132 @@
     <t>动态规划</t>
   </si>
   <si>
-    <t xml:space="preserve">剑指 Offer 22. 链表中倒数第k个节点</t>
+    <t>剑指 Offer 22. 链表中倒数第k个节点</t>
   </si>
   <si>
     <t>快慢指针。和19题一样的。</t>
   </si>
   <si>
-    <t xml:space="preserve">剑指 Offer 06. 从尾到头打印链表</t>
+    <t>剑指 Offer 06. 从尾到头打印链表</t>
   </si>
   <si>
     <t>递归</t>
   </si>
   <si>
-    <t xml:space="preserve">344. 反转字符串</t>
+    <t>344. 反转字符串</t>
   </si>
   <si>
     <t>双指针指向头尾。进行swap。</t>
   </si>
   <si>
-    <t xml:space="preserve">160. 相交链表</t>
+    <t>160. 相交链表</t>
   </si>
   <si>
     <t>我来到你的城市，走过你来时的路。</t>
+  </si>
+  <si>
+    <t>2055. 蜡烛之间的盘子</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>预处理 + 前缀和</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日一题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
-    <numFmt numFmtId="160" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="161" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="162" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="163" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11.000000"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
       <color theme="0"/>
-      <sz val="11.000000"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <sz val="11.000000"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF006100"/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="Calibri"/>
-      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11.000000"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11.000000"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <color indexed="65"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="15.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <i/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color indexed="20"/>
-      <sz val="11.000000"/>
-      <u/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="18.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color indexed="2"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color indexed="4"/>
-      <sz val="11.000000"/>
-      <u/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="3"/>
-      <sz val="13.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <sz val="11.000000"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <color rgb="FF006100"/>
-      <sz val="11.000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color indexed="20"/>
-      <sz val="11.000000"/>
-      <u/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,56 +449,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241899"/>
-        <bgColor theme="9" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431398"/>
-        <bgColor theme="7" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="47"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810496"/>
-        <bgColor theme="6" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431398"/>
-        <bgColor theme="6" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241899"/>
-        <bgColor theme="5" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241899"/>
-        <bgColor theme="8" tint="0.39997558519241899"/>
       </patternFill>
     </fill>
     <fill>
@@ -559,38 +461,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241899"/>
-        <bgColor theme="4" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241899"/>
-        <bgColor theme="7" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431398"/>
-        <bgColor theme="8" tint="0.79998168889431398"/>
       </patternFill>
     </fill>
     <fill>
@@ -601,92 +473,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431398"/>
-        <bgColor theme="4" tint="0.79998168889431398"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431398"/>
-        <bgColor theme="5" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810496"/>
-        <bgColor theme="7" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810496"/>
-        <bgColor theme="5" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241899"/>
-        <bgColor theme="6" tint="0.39997558519241899"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="26"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431398"/>
-        <bgColor theme="9" tint="0.79998168889431398"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810496"/>
-        <bgColor theme="9" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810496"/>
-        <bgColor theme="8" tint="0.59999389629810496"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810496"/>
-        <bgColor theme="4" tint="0.59999389629810496"/>
       </patternFill>
     </fill>
     <fill>
@@ -702,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -726,32 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -769,48 +537,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="8"/>
       </top>
@@ -818,344 +544,181 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="5" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="9" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="10" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="11" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="12" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="13" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="14" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="15" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="0" fillId="17" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="18" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="19" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="6" fillId="0" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="7" fillId="20" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="8" fillId="21" borderId="3" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="9" fillId="22" borderId="4" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="10" fillId="0" borderId="5" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="11" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="23" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="12" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="24" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="13" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="25" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="15" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="26" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="27" borderId="6" numFmtId="0" applyNumberFormat="0" applyFont="0" applyFill="1" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="28" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="29" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="30" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="16" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="163" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="17" fillId="0" borderId="5" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="31" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="12" fillId="0" borderId="7" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="32" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="33" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="18" fillId="0" borderId="8" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="18">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="21" fillId="18" borderId="0" numFmtId="0" xfId="19" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="19" fillId="34" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="11" borderId="0" numFmtId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="20" fillId="35" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="19" borderId="4" numFmtId="0" xfId="20" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="22" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="20" borderId="0" numFmtId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="5" borderId="1" numFmtId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="19" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="19" fillId="34" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="7">
+    <cellStyle name="20% - 着色 1" xfId="5" builtinId="30"/>
+    <cellStyle name="差" xfId="6" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="好" xfId="4" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="输入" xfId="1" builtinId="20"/>
+    <cellStyle name="着色 2" xfId="2" builtinId="33"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
       <font>
-        <name val="宋体"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <sz val="11.000000"/>
         <u val="none"/>
+        <sz val="11"/>
+        <name val="宋体"/>
         <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
-        <name val="宋体"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <sz val="11.000000"/>
         <u val="none"/>
+        <sz val="11"/>
+        <name val="宋体"/>
         <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
-        <name val="宋体"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <sz val="11.000000"/>
         <u val="none"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </dxf>
-    <dxf>
-      <font>
+        <sz val="11"/>
         <name val="宋体"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <sz val="11.000000"/>
-        <u val="none"/>
         <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
-        <name val="宋体"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <sz val="11.000000"/>
         <u val="none"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <name val="宋体"/>
         <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
-        <name val="宋体"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <sz val="11.000000"/>
         <u val="none"/>
+        <sz val="11"/>
+        <name val="宋体"/>
         <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment indent="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1163,311 +726,31 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="表1" ref="A1:G45">
-  <autoFilter ref="A1:G45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G45">
+  <autoFilter ref="A1:G45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="题目" dataDxfId="0"/>
-    <tableColumn id="2" name="难度" dataDxfId="1"/>
-    <tableColumn id="3" name="一刷" dataDxfId="2"/>
-    <tableColumn id="4" name="二刷" dataDxfId="3"/>
-    <tableColumn id="5" name="三刷" dataDxfId="4"/>
-    <tableColumn id="6" name="题解" dataDxfId="5"/>
-    <tableColumn id="7" name="题目类型" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="难度" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="一刷" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="二刷" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="三刷" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="题解" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="题目类型" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1672,31 +955,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0" zoomScale="100">
-      <selection activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="36.858333333333299"/>
-    <col customWidth="1" min="2" max="2" style="1" width="10.283333333333299"/>
-    <col customWidth="1" min="3" max="3" style="1" width="22.283333333333299"/>
-    <col min="4" max="5" style="1" width="9"/>
-    <col customWidth="1" min="6" max="6" style="1" width="65.424999999999997"/>
-    <col customWidth="1" min="7" max="7" style="1" width="10.858333333333301"/>
+    <col min="1" max="1" width="36.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="65.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1719,7 +1000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="51">
+    <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1738,7 +1019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="25.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1757,7 +1038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="25.5">
+    <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1776,7 +1057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="51">
+    <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1795,7 +1076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="25.5">
+    <row r="6" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1814,7 +1095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="38.25">
+    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1833,7 +1114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="38.25">
+    <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1852,7 +1133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="25.5">
+    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1871,7 +1152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1890,7 +1171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="25.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1909,7 +1190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1928,7 +1209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="25.5">
+    <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1947,7 +1228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1966,7 +1247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="25.5">
+    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1985,7 +1266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="38.25">
+    <row r="16" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -2004,7 +1285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -2023,7 +1304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -2042,7 +1323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -2061,7 +1342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="76.5">
+    <row r="20" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -2080,7 +1361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -2099,7 +1380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -2118,7 +1399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -2137,7 +1418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -2156,7 +1437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="25.5">
+    <row r="25" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2175,7 +1456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -2194,7 +1475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" ht="25.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
@@ -2213,7 +1494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -2230,7 +1511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -2244,7 +1525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -2263,7 +1544,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -2282,7 +1563,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" ht="38.25">
+    <row r="32" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>69</v>
       </c>
@@ -2302,7 +1583,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -2321,7 +1602,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" ht="25.5">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -2340,7 +1621,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -2359,7 +1640,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" ht="25.5">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>77</v>
       </c>
@@ -2378,7 +1659,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>79</v>
       </c>
@@ -2397,7 +1678,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>81</v>
       </c>
@@ -2416,7 +1697,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -2435,7 +1716,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" ht="25.5">
+    <row r="40" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
@@ -2454,7 +1735,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
@@ -2472,7 +1753,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" ht="25.5">
+    <row r="42" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>90</v>
       </c>
@@ -2489,7 +1770,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" ht="28.5">
+    <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
@@ -2506,7 +1787,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>95</v>
       </c>
@@ -2523,7 +1804,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -2537,7 +1818,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" ht="14.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -2554,7 +1835,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" ht="14.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>101</v>
       </c>
@@ -2571,14 +1852,30 @@
         <v>66</v>
       </c>
     </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="16">
+        <v>44628</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F43"/>
+    <hyperlink ref="F43" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2586,41 +1883,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
 </worksheet>
 </file>
--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761A102F-D87B-4DBC-84EE-710BC461A570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD94322-639A-41D8-BFB3-EE31A0CEA0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="109">
   <si>
     <t>题目</t>
   </si>
@@ -352,6 +352,14 @@
   </si>
   <si>
     <t>每日一题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题 10.01. 合并排序的数组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>和88题一样</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +448,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,6 +503,18 @@
         <bgColor rgb="FFA9D08E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -557,7 +577,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -591,9 +611,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -613,6 +630,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1526,7 +1555,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="20" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1660,7 +1689,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="19" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1763,7 +1792,7 @@
       <c r="C42" s="6">
         <v>44625</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="11" t="s">
         <v>91</v>
       </c>
       <c r="G42" s="7" t="s">
@@ -1780,15 +1809,15 @@
       <c r="C43" s="6">
         <v>44626</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1814,7 +1843,7 @@
       <c r="C45" s="6">
         <v>44626</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="14" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1825,13 +1854,13 @@
       <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="15">
         <v>44627</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="16" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1842,31 +1871,48 @@
       <c r="B47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="16">
-        <v>44628</v>
+      <c r="C47" s="15">
+        <v>44627</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="15">
         <v>44628</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="17" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="15">
+        <v>44628</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD94322-639A-41D8-BFB3-EE31A0CEA0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B2A65F-D329-4AC2-A03A-95B933239EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
   <si>
     <t>题目</t>
   </si>
@@ -360,6 +360,30 @@
   </si>
   <si>
     <t>和88题一样</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>234. 回文链表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>和160题一个套路，快慢指针。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>75. 颜色分类</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0挪到左边，2挪到右边，1自然会跑到正确的位置。但注意，2可能会把0和2换出来，这时候就要继续交换。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>61. 旋转链表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>先接成环，再断开</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +472,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,6 +539,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -577,7 +607,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -643,6 +673,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -990,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1865,7 +1904,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="23" t="s">
         <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1913,6 +1952,54 @@
       </c>
       <c r="G49" s="16" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="15">
+        <v>44633</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="15">
+        <v>44633</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="15">
+        <v>44635</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B2A65F-D329-4AC2-A03A-95B933239EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A264E05C-EA86-407F-B294-FE5A0799AE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="117">
   <si>
     <t>题目</t>
   </si>
@@ -384,6 +384,14 @@
   </si>
   <si>
     <t>先接成环，再断开</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>189. 轮转数组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>环状替换。</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1029,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2000,6 +2008,20 @@
       </c>
       <c r="F52" s="17" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="15">
+        <v>44635</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A264E05C-EA86-407F-B294-FE5A0799AE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53DB151-6E19-4FF7-B3BF-E29704ABA35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="123">
   <si>
     <t>题目</t>
   </si>
@@ -392,6 +392,30 @@
   </si>
   <si>
     <t>环状替换。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 58 - II. 左旋转字符串</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>很水的一题。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>快指针走两步，慢指针走一步。快指针走到头，慢指针必然指向中间节点。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>876. 链表的中间结点</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>31. 下一个排列</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1037,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2022,6 +2046,48 @@
       </c>
       <c r="F53" s="17" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="15">
+        <v>44635</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="15">
+        <v>44635</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="15">
+        <v>44635</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53DB151-6E19-4FF7-B3BF-E29704ABA35D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026EAAF0-6CDD-47A7-9A69-304CA5DC9EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="133">
   <si>
     <t>题目</t>
   </si>
@@ -416,6 +416,48 @@
   </si>
   <si>
     <t>31. 下一个排列</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>将左边的较小数与右边的较大的数进行交换。左边的较小数要尽可能地靠右，右边的较大数要尽可能小。交换之后，较大数后面要重新按照升序进行排序。
+1. 找较小数：从后往前，第一个满足nums[i] &lt; nums[i+1]的nums[i]即为较小数。
+2. 找较大数：从后往前，第一个满足nums[j] &gt; nums[i]的nums[j]即为较大数。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>125. 验证回文串</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>很简单</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>82. 删除排序链表中的重复元素 II</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>看清题目，重复的元素一个都不要。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 57 - II. 和为s的连续正数序列</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>977. 有序数组的平方</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针。找到最大的负数作为左指针，找到最小的正数作为右指针。</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +546,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +619,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -639,7 +687,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -714,6 +762,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1061,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2079,7 +2130,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="84" x14ac:dyDescent="0.3">
       <c r="A56" s="17" t="s">
         <v>122</v>
       </c>
@@ -2087,7 +2138,81 @@
         <v>104</v>
       </c>
       <c r="C56" s="15">
-        <v>44635</v>
+        <v>44636</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="15">
+        <v>44636</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="15">
+        <v>44636</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="15">
+        <v>44637</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="15">
+        <v>44637</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G60" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026EAAF0-6CDD-47A7-9A69-304CA5DC9EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF88654C-00A1-45F4-AF0E-E7AA776A8199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="139">
   <si>
     <t>题目</t>
   </si>
@@ -458,6 +458,31 @@
   </si>
   <si>
     <t>双指针。找到最大的负数作为左指针，找到最小的正数作为右指针。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指 Offer 21. 调整数组顺序使奇数位于偶数前面</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>和75颜色分类很像，右指针 right 指向下一个偶数将要存放的位置，左指针 left 遍历，遇到偶数就交换</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>18. 四数之和</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果暴力的话是四重循环，固定两个数，剩下的两个数用双指针，这样能将四重循环变成三重循环。
+去重的话，提前排好序就行了。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>349. 两个数组的交集</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针，注意去重就行了。</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1112,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2213,6 +2238,54 @@
       </c>
       <c r="G60" s="16" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+      <c r="A61" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="15">
+        <v>44638</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="15">
+        <v>44638</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="15">
+        <v>44638</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF88654C-00A1-45F4-AF0E-E7AA776A8199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCAF0FC-CCC2-4838-A2A2-4B0532F087AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="143">
   <si>
     <t>题目</t>
   </si>
@@ -324,9 +324,6 @@
     <t>剑指 Offer 06. 从尾到头打印链表</t>
   </si>
   <si>
-    <t>递归</t>
-  </si>
-  <si>
     <t>344. 反转字符串</t>
   </si>
   <si>
@@ -483,6 +480,26 @@
   </si>
   <si>
     <t>双指针，注意去重就行了。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>392. 判断子序列</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶难度：假如有很多次询问怎么办？要用动态规划。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>350. 两个数组的交集 II</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要去重。</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +507,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,8 +587,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,8 +681,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -698,6 +735,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -712,7 +760,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -752,12 +800,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -789,6 +831,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1702,7 +1756,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1836,7 +1890,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1959,12 +2013,12 @@
       <c r="F43" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="16" t="s">
         <v>95</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1990,302 +2044,342 @@
       <c r="C45" s="6">
         <v>44626</v>
       </c>
-      <c r="G45" s="14" t="s">
-        <v>98</v>
+      <c r="G45" s="26" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="13">
         <v>44627</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
-        <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="13">
         <v>44627</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+      <c r="B48" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="C48" s="13">
+        <v>44628</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="15">
-        <v>44628</v>
-      </c>
-      <c r="F48" s="17" t="s">
+      <c r="G48" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G48" s="17" t="s">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
-        <v>107</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="13">
         <v>44628</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="G49" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
-        <v>109</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="13">
         <v>44633</v>
       </c>
-      <c r="F50" s="17" t="s">
+      <c r="F50" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="G50" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+      <c r="B51" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="13">
+        <v>44633</v>
+      </c>
+      <c r="F51" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="15">
-        <v>44633</v>
-      </c>
-      <c r="F51" s="24" t="s">
+      <c r="G51" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G51" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
+      <c r="B52" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="13">
+        <v>44635</v>
+      </c>
+      <c r="F52" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C52" s="15">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="13">
         <v>44635</v>
       </c>
-      <c r="F52" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
+      <c r="F53" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="15">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="13">
         <v>44635</v>
       </c>
-      <c r="F53" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="17" t="s">
+      <c r="F54" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="15">
+      <c r="C55" s="13">
         <v>44635</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F55" s="15" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="17" t="s">
+      <c r="G55" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="15">
-        <v>44635</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="84" x14ac:dyDescent="0.3">
-      <c r="A56" s="17" t="s">
+      <c r="B56" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="13">
+        <v>44636</v>
+      </c>
+      <c r="F56" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="15">
+      <c r="G56" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="13">
         <v>44636</v>
       </c>
-      <c r="F56" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="17" t="s">
+      <c r="F57" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="15">
+      <c r="G57" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="13">
         <v>44636</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
+      <c r="F58" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="15">
-        <v>44636</v>
-      </c>
-      <c r="F58" s="17" t="s">
+      <c r="G58" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="25" t="s">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
+      <c r="B59" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="13">
+        <v>44637</v>
+      </c>
+      <c r="F59" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="15">
+      <c r="G59" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="13">
         <v>44637</v>
       </c>
-      <c r="F59" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
+      <c r="F60" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="15">
-        <v>44637</v>
-      </c>
-      <c r="F60" s="17" t="s">
+      <c r="G60" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A61" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="G60" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="28" x14ac:dyDescent="0.3">
-      <c r="A61" s="24" t="s">
+      <c r="B61" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="13">
+        <v>44638</v>
+      </c>
+      <c r="F61" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" s="15">
+      <c r="G61" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="13">
         <v>44638</v>
       </c>
-      <c r="F61" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="G61" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A62" s="17" t="s">
+      <c r="F62" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C62" s="15">
+      <c r="G62" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="13">
         <v>44638</v>
       </c>
-      <c r="F62" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G62" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="17" t="s">
+      <c r="F63" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B63" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="15">
-        <v>44638</v>
-      </c>
-      <c r="F63" s="17" t="s">
+      <c r="G63" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
         <v>138</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="13">
+        <v>44639</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="13">
+        <v>44639</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCAF0FC-CCC2-4838-A2A2-4B0532F087AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11D6471-2468-4CBA-BF92-28D766472DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="147">
   <si>
     <t>题目</t>
   </si>
@@ -500,6 +500,22 @@
   </si>
   <si>
     <t>不需要去重。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>557. 反转字符串中的单词 III</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>151. 颠倒字符串中的单词</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>从后往前遍历，一个一个的把单词切分拿出来。</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1191,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="G66" sqref="G66:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2379,6 +2395,40 @@
         <v>142</v>
       </c>
       <c r="G65" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="13">
+        <v>44640</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="13">
+        <v>44641</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G67" s="14" t="s">
         <v>66</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11D6471-2468-4CBA-BF92-28D766472DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EDD74C-B96B-4137-AA96-12CB0C71E113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="151">
   <si>
     <t>题目</t>
   </si>
@@ -516,6 +516,25 @@
   </si>
   <si>
     <t>从后往前遍历，一个一个的把单词切分拿出来。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 最接近的三数之和</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>和15. 三数之和类似。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>202. 快乐数</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环到最后会出现两种情况：
+1. 最终到达1
+2. 出现一个环
+因此本题就是检测是否会出现一个环，用快慢指针。</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1207,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66:G67"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2429,6 +2448,40 @@
         <v>146</v>
       </c>
       <c r="G67" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="13">
+        <v>44643</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" s="13">
+        <v>44643</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G69" s="14" t="s">
         <v>66</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EDD74C-B96B-4137-AA96-12CB0C71E113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="12995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="152">
   <si>
     <t>题目</t>
   </si>
@@ -324,6 +318,9 @@
     <t>剑指 Offer 06. 从尾到头打印链表</t>
   </si>
   <si>
+    <t>递归</t>
+  </si>
+  <si>
     <t>344. 反转字符串</t>
   </si>
   <si>
@@ -337,246 +334,174 @@
   </si>
   <si>
     <t>2055. 蜡烛之间的盘子</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>预处理 + 前缀和</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>每日一题</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>面试题 10.01. 合并排序的数组</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>和88题一样</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>234. 回文链表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>和160题一个套路，快慢指针。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>75. 颜色分类</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>0挪到左边，2挪到右边，1自然会跑到正确的位置。但注意，2可能会把0和2换出来，这时候就要继续交换。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>61. 旋转链表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>先接成环，再断开</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>189. 轮转数组</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>环状替换。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>剑指 Offer 58 - II. 左旋转字符串</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>很水的一题。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>876. 链表的中间结点</t>
   </si>
   <si>
     <t>快指针走两步，慢指针走一步。快指针走到头，慢指针必然指向中间节点。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>876. 链表的中间结点</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>31. 下一个排列</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>将左边的较小数与右边的较大的数进行交换。左边的较小数要尽可能地靠右，右边的较大数要尽可能小。交换之后，较大数后面要重新按照升序进行排序。
 1. 找较小数：从后往前，第一个满足nums[i] &lt; nums[i+1]的nums[i]即为较小数。
 2. 找较大数：从后往前，第一个满足nums[j] &gt; nums[i]的nums[j]即为较大数。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>125. 验证回文串</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>很简单</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>82. 删除排序链表中的重复元素 II</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>看清题目，重复的元素一个都不要。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>链表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>剑指 Offer 57 - II. 和为s的连续正数序列</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>滑动窗口</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>977. 有序数组的平方</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>双指针。找到最大的负数作为左指针，找到最小的正数作为右指针。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>剑指 Offer 21. 调整数组顺序使奇数位于偶数前面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>和75颜色分类很像，右指针 right 指向下一个偶数将要存放的位置，左指针 left 遍历，遇到偶数就交换</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>18. 四数之和</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>如果暴力的话是四重循环，固定两个数，剩下的两个数用双指针，这样能将四重循环变成三重循环。
 去重的话，提前排好序就行了。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>349. 两个数组的交集</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>双指针，注意去重就行了。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>392. 判断子序列</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>进阶难度：假如有很多次询问怎么办？要用动态规划。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>350. 两个数组的交集 II</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>不需要去重。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>557. 反转字符串中的单词 III</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>双指针。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>151. 颠倒字符串中的单词</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>从后往前遍历，一个一个的把单词切分拿出来。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>16. 最接近的三数之和</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>和15. 三数之和类似。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>202. 快乐数</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>循环到最后会出现两种情况：
 1. 最终到达1
 2. 出现一个环
 因此本题就是检测是否会出现一个环，用快慢指针。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>148. 排序链表</t>
+  </si>
+  <si>
+    <t>归并排序，在对链表进行分割的时候，用快慢指针寻找分割点</t>
+  </si>
+  <si>
+    <t>归并排序</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,52 +522,236 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color indexed="20"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FF5B9BD5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -652,67 +761,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FF5B9BD5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E"/>
-        <bgColor rgb="FFA9D08E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,13 +777,172 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -743,21 +957,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,209 +980,436 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="20% - 着色 1" xfId="5" builtinId="30"/>
-    <cellStyle name="差" xfId="6" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="4" builtinId="26"/>
-    <cellStyle name="适中" xfId="3" builtinId="28"/>
-    <cellStyle name="输入" xfId="1" builtinId="20"/>
-    <cellStyle name="着色 2" xfId="2" builtinId="33"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="yyyy/m/d"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="11"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
       </fill>
-      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0"/>
+      <alignment vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -991,24 +1417,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G45">
-  <autoFilter ref="A1:G45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G45">
+  <autoFilter ref="A1:G45"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="难度" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="一刷" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="二刷" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="三刷" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="题解" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="题目类型" dataDxfId="0"/>
+    <tableColumn id="1" name="题目" dataDxfId="0"/>
+    <tableColumn id="2" name="难度" dataDxfId="1"/>
+    <tableColumn id="3" name="一刷" dataDxfId="2"/>
+    <tableColumn id="4" name="二刷" dataDxfId="3"/>
+    <tableColumn id="5" name="三刷" dataDxfId="4"/>
+    <tableColumn id="6" name="题解" dataDxfId="5"/>
+    <tableColumn id="7" name="题目类型" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1220,29 +1643,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68:G69"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.8333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="65.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.4166666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.8333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+    <row r="2" ht="43.2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1284,7 +1707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1303,7 +1726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="4" ht="28.8" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1322,7 +1745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" ht="43.2" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1341,7 +1764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" ht="28.8" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1360,7 +1783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" ht="28.8" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1379,7 +1802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+    <row r="8" ht="43.2" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1398,7 +1821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="9" ht="28.8" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1417,7 +1840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1436,7 +1859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1455,7 +1878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1474,7 +1897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="13" ht="28.8" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1493,7 +1916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1512,7 +1935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="15" ht="28.8" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1531,7 +1954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="16" ht="28.8" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -1550,7 +1973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -1569,7 +1992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -1588,7 +2011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1607,7 +2030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="84" x14ac:dyDescent="0.3">
+    <row r="20" ht="86.4" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -1626,7 +2049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -1645,7 +2068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -1664,7 +2087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -1683,7 +2106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -1702,7 +2125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="25" ht="28.8" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -1721,7 +2144,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -1740,7 +2163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
@@ -1759,7 +2182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -1776,7 +2199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -1790,8 +2213,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1805,11 +2228,11 @@
       <c r="F30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G30" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -1824,12 +2247,12 @@
       <c r="F31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="G31" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" ht="43.2" spans="1:8">
+      <c r="A32" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1843,12 +2266,12 @@
       <c r="F32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -1863,11 +2286,11 @@
       <c r="F33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G33" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -1882,11 +2305,11 @@
       <c r="F34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G34" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -1901,12 +2324,12 @@
       <c r="F35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="G35" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1920,12 +2343,12 @@
       <c r="F36" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="G36" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1939,12 +2362,12 @@
       <c r="F37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="G37" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1958,11 +2381,11 @@
       <c r="F38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G38" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -1977,11 +2400,11 @@
       <c r="F39" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="G39" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" ht="28.8" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
@@ -1996,11 +2419,11 @@
       <c r="F40" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G40" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
@@ -2013,13 +2436,13 @@
       <c r="F41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+      <c r="G41" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" ht="28.8" spans="1:7">
+      <c r="A42" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2028,14 +2451,14 @@
       <c r="C42" s="6">
         <v>44625</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.3">
+      <c r="G42" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" ht="28.8" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
@@ -2045,14 +2468,14 @@
       <c r="C43" s="6">
         <v>44626</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="16" t="s">
         <v>95</v>
       </c>
@@ -2065,11 +2488,11 @@
       <c r="F44" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G44" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -2079,449 +2502,475 @@
       <c r="C45" s="6">
         <v>44626</v>
       </c>
-      <c r="G45" s="26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G45" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="6">
         <v>44627</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
         <v>100</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="6">
         <v>44627</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="G47" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="13">
+      <c r="B48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6">
         <v>44628</v>
       </c>
-      <c r="F48" s="15" t="s">
+      <c r="F48" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:7">
+      <c r="A49" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="6">
         <v>44628</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F49" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
+      <c r="G49" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="19" t="s">
         <v>108</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="6">
         <v>44633</v>
       </c>
-      <c r="F50" s="15" t="s">
+      <c r="F50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+      <c r="G50" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" ht="28.8" spans="1:7">
+      <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="13">
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="6">
         <v>44633</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G51" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+      <c r="G51" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B52" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="13">
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="6">
         <v>44635</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B53" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="13">
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="6">
         <v>44635</v>
       </c>
-      <c r="F53" s="15" t="s">
+      <c r="F53" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="6">
+        <v>44635</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="13">
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="6">
         <v>44635</v>
       </c>
-      <c r="F54" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
+      <c r="F55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" ht="72" spans="1:7">
+      <c r="A56" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="13">
-        <v>44635</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="84" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+      <c r="B56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="6">
+        <v>44636</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="13">
+      <c r="G56" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="6">
         <v>44636</v>
       </c>
-      <c r="F56" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
+      <c r="F57" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="13">
+      <c r="G57" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="6">
         <v>44636</v>
       </c>
-      <c r="F57" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
+      <c r="F58" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="13">
-        <v>44636</v>
-      </c>
-      <c r="F58" s="15" t="s">
+      <c r="G58" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G58" s="23" t="s">
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="6">
+        <v>44637</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="13">
+      <c r="G59" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="6">
         <v>44637</v>
       </c>
-      <c r="F59" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="F60" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C60" s="13">
-        <v>44637</v>
-      </c>
-      <c r="F60" s="15" t="s">
+      <c r="G60" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" ht="28.8" spans="1:7">
+      <c r="A61" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G60" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
+      <c r="B61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="6">
+        <v>44638</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C61" s="13">
+      <c r="G61" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" ht="43.2" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="6">
         <v>44638</v>
       </c>
-      <c r="F61" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
+      <c r="F62" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="13">
+      <c r="G62" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="6">
         <v>44638</v>
       </c>
-      <c r="F62" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="27" t="s">
+      <c r="F63" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C63" s="13">
-        <v>44638</v>
-      </c>
-      <c r="F63" s="15" t="s">
+      <c r="G63" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G63" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="6">
+        <v>44639</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B64" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="13">
+      <c r="G64" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="6">
         <v>44639</v>
       </c>
-      <c r="F64" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="27" t="s">
+      <c r="F65" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B65" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="13">
-        <v>44639</v>
-      </c>
-      <c r="F65" s="15" t="s">
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="6">
+        <v>44640</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G65" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
+      <c r="G66" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="13">
-        <v>44640</v>
-      </c>
-      <c r="F66" s="15" t="s">
+      <c r="B67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="6">
+        <v>44641</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G66" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
+      <c r="G67" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C67" s="13">
-        <v>44641</v>
-      </c>
-      <c r="F67" s="15" t="s">
+      <c r="B68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="6">
+        <v>44643</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G67" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
+      <c r="G68" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" ht="57.6" spans="1:7">
+      <c r="A69" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B68" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="13">
+      <c r="B69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="6">
         <v>44643</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="F69" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G68" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="56" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
+      <c r="G69" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" s="13">
-        <v>44643</v>
-      </c>
-      <c r="F69" s="22" t="s">
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="6">
+        <v>44653</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G69" s="14" t="s">
-        <v>66</v>
+      <c r="G70" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H70" s="24" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F43" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F43" r:id="rId2" display="https://leetcode-cn.com/problems/trapping-rain-water/solution/jie-yu-shui-by-leetcode-solution-tuvc/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/record.xlsx
+++ b/record.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6711BA41-28B3-4E4B-A1C3-88DB2B1DC093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12995"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="154">
   <si>
     <t>题目</t>
   </si>
@@ -485,18 +491,21 @@
   <si>
     <t>归并排序</t>
   </si>
+  <si>
+    <t>80. 删除有序数组中的重复项 II</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个指针pos指向下一个有效数字应该存放的位置，一个指针i遍历当前数组。因为是排好序的数组，所以前两个数一定是有效的。
+只要判断当前遍历的数字不等于pos - 2位置的数字，当前数字就是有效的。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,14 +534,14 @@
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -540,7 +549,7 @@
       <sz val="11"/>
       <color indexed="20"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -556,143 +565,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,8 +650,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
+        <bgColor theme="4" tint="0.79992065187536243"/>
       </patternFill>
     </fill>
     <fill>
@@ -749,7 +662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,150 +692,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -980,215 +755,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1204,7 +785,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1216,16 +797,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1234,13 +815,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1258,150 +839,41 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="7">
+    <cellStyle name="20% - 着色 1" xfId="6" builtinId="30"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="4" builtinId="26"/>
+    <cellStyle name="适中" xfId="5" builtinId="28"/>
+    <cellStyle name="输入" xfId="1" builtinId="20"/>
+    <cellStyle name="着色 2" xfId="3" builtinId="33"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
       <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="11"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
         <name val="宋体"/>
         <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="宋体"/>
-        <scheme val="none"/>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1409,6 +881,79 @@
       <alignment vertical="center" wrapText="1"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
       <alignment vertical="center"/>
     </dxf>
   </dxfs>
@@ -1417,21 +962,24 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G45">
-  <autoFilter ref="A1:G45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A1:G45">
+  <autoFilter ref="A1:G45" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="题目" dataDxfId="0"/>
-    <tableColumn id="2" name="难度" dataDxfId="1"/>
-    <tableColumn id="3" name="一刷" dataDxfId="2"/>
-    <tableColumn id="4" name="二刷" dataDxfId="3"/>
-    <tableColumn id="5" name="三刷" dataDxfId="4"/>
-    <tableColumn id="6" name="题解" dataDxfId="5"/>
-    <tableColumn id="7" name="题目类型" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="题目" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="难度" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="一刷" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="二刷" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="三刷" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="题解" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="题目类型" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1643,29 +1191,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.8333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="65.4166666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1688,7 +1236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="43.2" spans="1:7">
+    <row r="2" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1707,7 +1255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1726,7 +1274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:7">
+    <row r="4" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1745,7 +1293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="43.2" spans="1:7">
+    <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1764,7 +1312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:7">
+    <row r="6" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1783,7 +1331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:7">
+    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1802,7 +1350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="43.2" spans="1:7">
+    <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1821,7 +1369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="1:7">
+    <row r="9" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1840,7 +1388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1859,7 +1407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1878,7 +1426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1897,7 +1445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="28.8" spans="1:7">
+    <row r="13" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1916,7 +1464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1935,7 +1483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="28.8" spans="1:7">
+    <row r="15" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>36</v>
       </c>
@@ -1954,7 +1502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:7">
+    <row r="16" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -1973,7 +1521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -1992,7 +1540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -2011,7 +1559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -2030,7 +1578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" ht="86.4" spans="1:7">
+    <row r="20" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -2049,7 +1597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -2068,7 +1616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -2087,7 +1635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -2106,7 +1654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -2125,7 +1673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" ht="28.8" spans="1:7">
+    <row r="25" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2144,7 +1692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -2163,7 +1711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
@@ -2182,7 +1730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -2199,7 +1747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>63</v>
       </c>
@@ -2213,7 +1761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
@@ -2232,7 +1780,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -2251,7 +1799,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" ht="43.2" spans="1:8">
+    <row r="32" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>69</v>
       </c>
@@ -2271,7 +1819,7 @@
       </c>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -2290,7 +1838,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -2309,7 +1857,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -2328,7 +1876,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>77</v>
       </c>
@@ -2347,7 +1895,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>79</v>
       </c>
@@ -2366,7 +1914,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>81</v>
       </c>
@@ -2385,7 +1933,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -2404,7 +1952,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" ht="28.8" spans="1:7">
+    <row r="40" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
@@ -2423,7 +1971,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
@@ -2441,7 +1989,7 @@
       </c>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" ht="28.8" spans="1:7">
+    <row r="42" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>90</v>
       </c>
@@ -2458,7 +2006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" ht="28.8" spans="1:7">
+    <row r="43" spans="1:8" ht="29" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
@@ -2475,7 +2023,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>95</v>
       </c>
@@ -2492,7 +2040,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -2506,7 +2054,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -2523,7 +2071,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>101</v>
       </c>
@@ -2540,7 +2088,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>103</v>
       </c>
@@ -2557,7 +2105,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
         <v>106</v>
       </c>
@@ -2574,7 +2122,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
         <v>108</v>
       </c>
@@ -2591,7 +2139,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" ht="28.8" spans="1:7">
+    <row r="51" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
@@ -2608,7 +2156,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>112</v>
       </c>
@@ -2622,7 +2170,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>114</v>
       </c>
@@ -2636,7 +2184,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>116</v>
       </c>
@@ -2650,7 +2198,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>118</v>
       </c>
@@ -2667,7 +2215,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" ht="72" spans="1:7">
+    <row r="56" spans="1:8" ht="84" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>120</v>
       </c>
@@ -2684,7 +2232,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>122</v>
       </c>
@@ -2701,7 +2249,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>124</v>
       </c>
@@ -2718,7 +2266,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>127</v>
       </c>
@@ -2735,7 +2283,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>129</v>
       </c>
@@ -2752,7 +2300,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" ht="28.8" spans="1:7">
+    <row r="61" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
         <v>131</v>
       </c>
@@ -2769,7 +2317,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" ht="43.2" spans="1:7">
+    <row r="62" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>133</v>
       </c>
@@ -2786,7 +2334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="22" t="s">
         <v>135</v>
       </c>
@@ -2803,7 +2351,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>137</v>
       </c>
@@ -2823,7 +2371,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
         <v>139</v>
       </c>
@@ -2840,7 +2388,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>141</v>
       </c>
@@ -2857,7 +2405,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>143</v>
       </c>
@@ -2874,7 +2422,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>145</v>
       </c>
@@ -2891,7 +2439,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" ht="57.6" spans="1:7">
+    <row r="69" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>147</v>
       </c>
@@ -2908,7 +2456,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>149</v>
       </c>
@@ -2928,49 +2476,60 @@
         <v>151</v>
       </c>
     </row>
+    <row r="71" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="A71" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="6">
+        <v>44653</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F43" r:id="rId2" display="https://leetcode-cn.com/problems/trapping-rain-water/solution/jie-yu-shui-by-leetcode-solution-tuvc/"/>
+    <hyperlink ref="F43" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" useFirstPageNumber="1"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/record.xlsx
+++ b/record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6711BA41-28B3-4E4B-A1C3-88DB2B1DC093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA7C96A-5264-41A4-9257-1243F44DC6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="158">
   <si>
     <t>题目</t>
   </si>
@@ -493,19 +493,38 @@
   </si>
   <si>
     <t>80. 删除有序数组中的重复项 II</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>一个指针pos指向下一个有效数字应该存放的位置，一个指针i遍历当前数组。因为是排好序的数组，所以前两个数一定是有效的。
 只要判断当前遍历的数字不等于pos - 2位置的数字，当前数字就是有效的。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>287. 寻找重复数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>环形链表的变形题目。
+其实就是快慢指针判断链表中是否存在一个环。问题是怎么构造一个链表出来。具体可以看题解：
+https://leetcode-cn.com/problems/find-the-duplicate-number/solution/287xun-zhao-zhong-fu-shu-by-kirsche/</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>143. 重排链表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法1：将链表放到vector里面。
+方法2：寻找链表中点+反转链表+合并链表。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,13 +548,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -632,12 +644,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor theme="5"/>
       </patternFill>
@@ -693,6 +699,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,20 +768,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -797,67 +808,72 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="20% - 着色 1" xfId="6" builtinId="30"/>
+  <cellStyles count="6">
+    <cellStyle name="20% - 着色 1" xfId="5" builtinId="30"/>
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="4" builtinId="26"/>
-    <cellStyle name="适中" xfId="5" builtinId="28"/>
     <cellStyle name="输入" xfId="1" builtinId="20"/>
     <cellStyle name="着色 2" xfId="3" builtinId="33"/>
   </cellStyles>
@@ -1197,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1800,7 +1816,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1817,7 +1833,7 @@
       <c r="G32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -1877,7 +1893,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1896,7 +1912,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1915,7 +1931,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1987,10 +2003,10 @@
       <c r="G41" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H41" s="10"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1999,7 +2015,7 @@
       <c r="C42" s="6">
         <v>44625</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="12" t="s">
         <v>91</v>
       </c>
       <c r="G42" s="8" t="s">
@@ -2016,15 +2032,15 @@
       <c r="C43" s="6">
         <v>44626</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2050,7 +2066,7 @@
       <c r="C45" s="6">
         <v>44626</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="16" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2067,12 +2083,12 @@
       <c r="F46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="18" t="s">
         <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2084,7 +2100,7 @@
       <c r="F47" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2106,7 +2122,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="19" t="s">
         <v>106</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2118,12 +2134,12 @@
       <c r="F49" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="18" t="s">
         <v>108</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -2135,7 +2151,7 @@
       <c r="F50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2149,10 +2165,10 @@
       <c r="C51" s="6">
         <v>44633</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G51" s="18" t="s">
+      <c r="G51" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2211,7 +2227,7 @@
       <c r="F55" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G55" s="18" t="s">
+      <c r="G55" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2225,10 +2241,10 @@
       <c r="C56" s="6">
         <v>44636</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G56" s="18" t="s">
+      <c r="G56" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2245,7 +2261,7 @@
       <c r="F57" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="G57" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2262,7 +2278,7 @@
       <c r="F58" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G58" s="21" t="s">
+      <c r="G58" s="20" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2296,12 +2312,12 @@
       <c r="F60" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G60" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
         <v>131</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -2310,10 +2326,10 @@
       <c r="C61" s="6">
         <v>44638</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G61" s="18" t="s">
+      <c r="G61" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2327,15 +2343,15 @@
       <c r="C62" s="6">
         <v>44638</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G62" s="18" t="s">
+      <c r="G62" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -2347,7 +2363,7 @@
       <c r="F63" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G63" s="18" t="s">
+      <c r="G63" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2364,15 +2380,15 @@
       <c r="F64" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G64" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H64" s="23" t="s">
+      <c r="G64" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="21" t="s">
         <v>139</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -2384,7 +2400,7 @@
       <c r="F65" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2401,7 +2417,7 @@
       <c r="F66" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2418,7 +2434,7 @@
       <c r="F67" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2435,7 +2451,7 @@
       <c r="F68" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2449,10 +2465,10 @@
       <c r="C69" s="6">
         <v>44643</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G69" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2469,15 +2485,15 @@
       <c r="F70" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G70" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H70" s="24" t="s">
+      <c r="G70" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H70" s="28" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="42" x14ac:dyDescent="0.3">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="23" t="s">
         <v>152</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -2486,15 +2502,49 @@
       <c r="C71" s="6">
         <v>44653</v>
       </c>
-      <c r="F71" s="26" t="s">
+      <c r="F71" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="G71" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="A72" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="6">
+        <v>44654</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A73" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="6">
+        <v>44654</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G73" s="17" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F43" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
@@ -2514,7 +2564,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" useFirstPageNumber="1"/>
 </worksheet>
@@ -2528,7 +2578,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" useFirstPageNumber="1"/>
 </worksheet>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA7C96A-5264-41A4-9257-1243F44DC6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56782B8D-39B0-478A-9C53-1E9E833D510F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="161">
   <si>
     <t>题目</t>
   </si>
@@ -517,6 +517,18 @@
   <si>
     <t>方法1：将链表放到vector里面。
 方法2：寻找链表中点+反转链表+合并链表。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护两个链表 small 和 large 即可，small 链表按顺序存储所有小于 x 的节点，large 链表按顺序存储所有大于等于 x 的节点。遍历完原链表后，我们只要将 small 链表尾节点指向 large 链表的头节点即能完成对链表的分隔。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>86. 分隔链表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1213,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2541,6 +2553,23 @@
       </c>
       <c r="G73" s="17" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="A74" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="6">
+        <v>44655</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56782B8D-39B0-478A-9C53-1E9E833D510F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9FD96D-5A04-4AEB-9045-EC59D97C2F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="164">
   <si>
     <t>题目</t>
   </si>
@@ -529,6 +529,18 @@
   </si>
   <si>
     <t>模拟</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题 01.06. 字符串压缩</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>用一个变量cnt记录当前字符出现的次数，初始化为0。遍历字符串，每次遍历先将cnt自增，当遇到字符串结尾，或者当前字符不等于下一个字符时，认为当前字符的循环结束。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1225,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2569,6 +2581,23 @@
         <v>158</v>
       </c>
       <c r="G74" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+      <c r="A75" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="6">
+        <v>44655</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G75" s="23" t="s">
         <v>160</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9FD96D-5A04-4AEB-9045-EC59D97C2F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824D7536-047A-4A80-8F3D-B2964FFD1098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="166">
   <si>
     <t>题目</t>
   </si>
@@ -541,6 +541,14 @@
   </si>
   <si>
     <t>用一个变量cnt记录当前字符出现的次数，初始化为0。遍历字符串，每次遍历先将cnt自增，当遇到字符串结尾，或者当前字符不等于下一个字符时，认为当前字符的循环结束。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>844. 比较含退格的字符串</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接构造出两个字符串。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1237,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2599,6 +2607,20 @@
       </c>
       <c r="G75" s="23" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="6">
+        <v>44656</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824D7536-047A-4A80-8F3D-B2964FFD1098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F01535B-1CD3-4B20-BB98-62B1BB6DAB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="169">
   <si>
     <t>题目</t>
   </si>
@@ -549,6 +549,18 @@
   </si>
   <si>
     <t>直接构造出两个字符串。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">69. x 的平方根 </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">二分查找，假设最终结果是ans，找到使得 ans * ans &lt;= x 的最大的那个ans </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -812,7 +824,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -898,6 +910,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1245,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2621,6 +2636,23 @@
       </c>
       <c r="F76" s="23" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="6">
+        <v>44662</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G77" s="29" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\lemon\code\leetcode-cpp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F01535B-1CD3-4B20-BB98-62B1BB6DAB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8F3AB0-7997-4701-B408-EE5DC70BF598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="173">
   <si>
     <t>题目</t>
   </si>
@@ -561,6 +561,24 @@
   </si>
   <si>
     <t>二分</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>806. 写字符串需要的行数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>34. 在排序数组中查找元素的第一个和最后一个位置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>中等</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次二分，第一次找左边界，第二次找右边界。
+1. 找左边界。遇到nums[mid] &gt;= target，令right = mid - 1，否则令left = mid + 1。假如存在target，最后right + 1一定指向左边界。
+2. 找右边界。遇到nums[mid] &lt;= target，令left = mid + 1，否则令right = mid - 1。假如存在target，最后left - 1一定指向左边界。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1260,15 +1278,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
@@ -2652,6 +2670,40 @@
         <v>167</v>
       </c>
       <c r="G77" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="6">
+        <v>44663</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+      <c r="A79" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" s="6">
+        <v>44663</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="G79" s="29" t="s">
         <v>168</v>
       </c>
     </row>
